--- a/智元灵犀X1_BOM清单_20241024.xlsx
+++ b/智元灵犀X1_BOM清单_20241024.xlsx
@@ -10,7 +10,7 @@
     <sheet name="整机结构BOM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整机结构BOM!$A$1:$H$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整机结构BOM!$A$1:$H$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="238">
   <si>
     <t>类别</t>
   </si>
@@ -167,9 +167,6 @@
     <t>上固定板</t>
   </si>
   <si>
-    <t>电池包</t>
-  </si>
-  <si>
     <t>不锈钢</t>
   </si>
   <si>
@@ -891,6 +888,12 @@
   </si>
   <si>
     <t>XT30(2+2)_L28_350mm</t>
+  </si>
+  <si>
+    <t>D435</t>
+  </si>
+  <si>
+    <t>intel realsense</t>
   </si>
   <si>
     <t>胸腔DCU与下肢DCU连接网线</t>
@@ -1110,14 +1113,14 @@
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2044,15 +2047,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H338"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="25.2" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -2063,7 +2066,7 @@
     <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.2" spans="1:8">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -2135,7 +2138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -2153,7 +2156,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>20</v>
@@ -2175,7 +2178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>21</v>
@@ -2197,7 +2200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="19" customHeight="1" spans="1:8">
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>24</v>
@@ -2219,7 +2222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>25</v>
@@ -2239,7 +2242,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
         <v>26</v>
@@ -2261,7 +2264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>30</v>
@@ -2281,7 +2284,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
@@ -2301,7 +2304,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>32</v>
@@ -2321,7 +2324,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" ht="19" customHeight="1" spans="1:8">
+    <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
@@ -2341,7 +2344,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" ht="19" customHeight="1" spans="1:8">
+    <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -2361,7 +2364,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" ht="19" customHeight="1" spans="1:8">
+    <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
         <v>35</v>
@@ -2381,7 +2384,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" ht="19" customHeight="1" spans="1:8">
+    <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -2403,7 +2406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" ht="19" customHeight="1" spans="1:8">
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="10" t="s">
         <v>38</v>
@@ -2423,7 +2426,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" ht="19" customHeight="1" spans="1:8">
+    <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>39</v>
@@ -2445,7 +2448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="19" customHeight="1" spans="1:8">
+    <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>40</v>
@@ -2465,7 +2468,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" ht="19" customHeight="1" spans="1:8">
+    <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>41</v>
@@ -2487,10 +2490,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" ht="19" customHeight="1" spans="1:8">
+    <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
@@ -2502,19 +2505,19 @@
         <v>11</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="19" customHeight="1" spans="1:8">
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
@@ -2531,10 +2534,10 @@
       <c r="G22" s="12"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" ht="19" customHeight="1" spans="1:8">
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
@@ -2551,10 +2554,10 @@
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" ht="19" customHeight="1" spans="1:8">
+    <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
@@ -2571,10 +2574,10 @@
       <c r="G24" s="12"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" ht="19" customHeight="1" spans="1:8">
+    <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
@@ -2593,10 +2596,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" ht="19" customHeight="1" spans="1:8">
+    <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
@@ -2612,13 +2615,13 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" ht="19" customHeight="1" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
@@ -2635,10 +2638,10 @@
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" ht="19" customHeight="1" spans="1:8">
+    <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -2653,10 +2656,10 @@
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" ht="19" customHeight="1" spans="1:8">
+    <row r="29" customHeight="1" spans="1:8">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -2671,10 +2674,10 @@
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" ht="19" customHeight="1" spans="1:8">
+    <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -2689,10 +2692,10 @@
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" ht="19" customHeight="1" spans="1:8">
+    <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -2707,10 +2710,10 @@
       <c r="G31" s="12"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" ht="19" customHeight="1" spans="1:8">
+    <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -2725,10 +2728,10 @@
       <c r="G32" s="12"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" ht="19" customHeight="1" spans="1:8">
+    <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="3"/>
       <c r="B33" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
@@ -2747,10 +2750,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" ht="19" customHeight="1" spans="1:8">
+    <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="3"/>
       <c r="B34" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>19</v>
@@ -2765,10 +2768,10 @@
       <c r="G34" s="4"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" ht="19" customHeight="1" spans="1:8">
+    <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>19</v>
@@ -2783,10 +2786,10 @@
       <c r="G35" s="4"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" ht="19" customHeight="1" spans="1:8">
+    <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
@@ -2805,10 +2808,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" ht="19" customHeight="1" spans="1:8">
+    <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>15</v>
@@ -2827,10 +2830,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" ht="19" customHeight="1" spans="1:8">
+    <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
@@ -2849,10 +2852,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" ht="19" customHeight="1" spans="1:8">
+    <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
@@ -2871,10 +2874,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" ht="19" customHeight="1" spans="1:8">
+    <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="3"/>
       <c r="B40" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>15</v>
@@ -2893,10 +2896,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" ht="19" customHeight="1" spans="1:8">
+    <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>10</v>
@@ -2915,10 +2918,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" ht="19" customHeight="1" spans="1:8">
+    <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>15</v>
@@ -2937,10 +2940,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" ht="19" customHeight="1" spans="1:8">
+    <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="3"/>
       <c r="B43" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>10</v>
@@ -2959,10 +2962,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" ht="19" customHeight="1" spans="1:8">
+    <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="3"/>
       <c r="B44" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>10</v>
@@ -2981,10 +2984,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" ht="19" customHeight="1" spans="1:8">
+    <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="3"/>
       <c r="B45" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>10</v>
@@ -3003,10 +3006,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" ht="19" customHeight="1" spans="1:8">
+    <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="3"/>
       <c r="B46" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>10</v>
@@ -3025,10 +3028,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" ht="19" customHeight="1" spans="1:8">
+    <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="3"/>
       <c r="B47" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>10</v>
@@ -3047,10 +3050,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" ht="19" customHeight="1" spans="1:8">
+    <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="3"/>
       <c r="B48" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>15</v>
@@ -3069,10 +3072,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" ht="19" customHeight="1" spans="1:8">
+    <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="3"/>
       <c r="B49" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>15</v>
@@ -3091,10 +3094,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" ht="19" customHeight="1" spans="1:8">
+    <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="3"/>
       <c r="B50" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>10</v>
@@ -3113,10 +3116,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" ht="19" customHeight="1" spans="1:8">
+    <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>27</v>
@@ -3131,10 +3134,10 @@
       <c r="G51" s="4"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" ht="19" customHeight="1" spans="1:8">
+    <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>10</v>
@@ -3153,10 +3156,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" ht="19" customHeight="1" spans="1:8">
+    <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="3"/>
       <c r="B53" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>10</v>
@@ -3175,10 +3178,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" ht="19" customHeight="1" spans="1:8">
+    <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>10</v>
@@ -3197,10 +3200,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" ht="19" customHeight="1" spans="1:8">
+    <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="3"/>
       <c r="B55" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>10</v>
@@ -3219,10 +3222,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" ht="19" customHeight="1" spans="1:8">
+    <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="3"/>
       <c r="B56" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>10</v>
@@ -3241,10 +3244,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" ht="19" customHeight="1" spans="1:8">
+    <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>10</v>
@@ -3261,10 +3264,10 @@
       <c r="G57" s="7"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" ht="19" customHeight="1" spans="1:8">
+    <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="3"/>
       <c r="B58" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>10</v>
@@ -3283,10 +3286,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" ht="19" customHeight="1" spans="1:8">
+    <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>27</v>
@@ -3301,10 +3304,10 @@
       <c r="G59" s="4"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" ht="19" customHeight="1" spans="1:8">
+    <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>27</v>
@@ -3319,10 +3322,10 @@
       <c r="G60" s="4"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" ht="19" customHeight="1" spans="1:8">
+    <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>27</v>
@@ -3337,10 +3340,10 @@
       <c r="G61" s="4"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" ht="19" customHeight="1" spans="1:8">
+    <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>27</v>
@@ -3355,10 +3358,10 @@
       <c r="G62" s="4"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" ht="19" customHeight="1" spans="1:8">
+    <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>27</v>
@@ -3373,10 +3376,10 @@
       <c r="G63" s="4"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" ht="19" customHeight="1" spans="1:8">
+    <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>27</v>
@@ -3391,10 +3394,10 @@
       <c r="G64" s="4"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>27</v>
@@ -3409,10 +3412,10 @@
       <c r="G65" s="4"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>27</v>
@@ -3427,10 +3430,10 @@
       <c r="G66" s="4"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>15</v>
@@ -3449,10 +3452,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>15</v>
@@ -3471,10 +3474,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>15</v>
@@ -3493,10 +3496,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" ht="19" customHeight="1" spans="1:8">
+    <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>27</v>
@@ -3511,10 +3514,10 @@
       <c r="G70" s="4"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" ht="19" customHeight="1" spans="1:8">
+    <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>19</v>
@@ -3529,10 +3532,10 @@
       <c r="G71" s="4"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" ht="19" customHeight="1" spans="1:8">
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>27</v>
@@ -3547,10 +3550,10 @@
       <c r="G72" s="4"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" ht="19" customHeight="1" spans="1:8">
+    <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>19</v>
@@ -3565,10 +3568,10 @@
       <c r="G73" s="4"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" ht="19" customHeight="1" spans="1:8">
+    <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="3"/>
       <c r="B74" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>27</v>
@@ -3583,10 +3586,10 @@
       <c r="G74" s="4"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" ht="19" customHeight="1" spans="1:8">
+    <row r="75" customHeight="1" spans="1:8">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>15</v>
@@ -3605,10 +3608,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" ht="19" customHeight="1" spans="1:8">
+    <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>15</v>
@@ -3620,17 +3623,17 @@
         <v>11</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" ht="22" customHeight="1" spans="1:8">
+    <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="3"/>
       <c r="B77" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>27</v>
@@ -3645,10 +3648,10 @@
       <c r="G77" s="4"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" customHeight="1" spans="1:8">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>15</v>
@@ -3667,10 +3670,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" customHeight="1" spans="1:8">
       <c r="A79" s="3"/>
       <c r="B79" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>15</v>
@@ -3689,10 +3692,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" customHeight="1" spans="1:8">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>19</v>
@@ -3707,10 +3710,10 @@
       <c r="G80" s="4"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" customHeight="1" spans="1:8">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>19</v>
@@ -3725,10 +3728,10 @@
       <c r="G81" s="7"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" ht="19" customHeight="1" spans="1:8">
+    <row r="82" customHeight="1" spans="1:8">
       <c r="A82" s="3"/>
       <c r="B82" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>15</v>
@@ -3747,10 +3750,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" ht="19" customHeight="1" spans="1:8">
+    <row r="83" customHeight="1" spans="1:8">
       <c r="A83" s="3"/>
       <c r="B83" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>15</v>
@@ -3769,10 +3772,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" customHeight="1" spans="1:8">
       <c r="A84" s="3"/>
       <c r="B84" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>27</v>
@@ -3787,10 +3790,10 @@
       <c r="G84" s="7"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" ht="19" customHeight="1" spans="1:8">
+    <row r="85" customHeight="1" spans="1:8">
       <c r="A85" s="3"/>
       <c r="B85" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>15</v>
@@ -3809,10 +3812,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" ht="19" customHeight="1" spans="1:8">
+    <row r="86" customHeight="1" spans="1:8">
       <c r="A86" s="3"/>
       <c r="B86" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>10</v>
@@ -3831,10 +3834,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" ht="19" customHeight="1" spans="1:8">
+    <row r="87" customHeight="1" spans="1:8">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>27</v>
@@ -3849,10 +3852,10 @@
       <c r="G87" s="7"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" ht="19" customHeight="1" spans="1:8">
+    <row r="88" customHeight="1" spans="1:8">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>27</v>
@@ -3867,10 +3870,10 @@
       <c r="G88" s="7"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" ht="19" customHeight="1" spans="1:8">
+    <row r="89" customHeight="1" spans="1:8">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>27</v>
@@ -3885,10 +3888,10 @@
       <c r="G89" s="7"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" ht="19" customHeight="1" spans="1:8">
+    <row r="90" customHeight="1" spans="1:8">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>27</v>
@@ -3903,10 +3906,10 @@
       <c r="G90" s="7"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" ht="19" customHeight="1" spans="1:8">
+    <row r="91" customHeight="1" spans="1:8">
       <c r="A91" s="3"/>
       <c r="B91" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>27</v>
@@ -3921,10 +3924,10 @@
       <c r="G91" s="7"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" ht="19" customHeight="1" spans="1:8">
+    <row r="92" customHeight="1" spans="1:8">
       <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>15</v>
@@ -3943,10 +3946,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" ht="19" customHeight="1" spans="1:8">
+    <row r="93" customHeight="1" spans="1:8">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>15</v>
@@ -3965,10 +3968,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" ht="19" customHeight="1" spans="1:8">
+    <row r="94" customHeight="1" spans="1:8">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>15</v>
@@ -3987,10 +3990,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" ht="19" customHeight="1" spans="1:8">
+    <row r="95" customHeight="1" spans="1:8">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>15</v>
@@ -4009,10 +4012,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" ht="19" customHeight="1" spans="1:8">
+    <row r="96" customHeight="1" spans="1:8">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>15</v>
@@ -4031,10 +4034,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" ht="19" customHeight="1" spans="1:8">
+    <row r="97" customHeight="1" spans="1:8">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>15</v>
@@ -4053,10 +4056,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" ht="19" customHeight="1" spans="1:8">
+    <row r="98" customHeight="1" spans="1:8">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>15</v>
@@ -4075,10 +4078,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" ht="19" customHeight="1" spans="1:8">
+    <row r="99" customHeight="1" spans="1:8">
       <c r="A99" s="3"/>
       <c r="B99" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>15</v>
@@ -4097,10 +4100,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" ht="19" customHeight="1" spans="1:8">
+    <row r="100" customHeight="1" spans="1:8">
       <c r="A100" s="3"/>
       <c r="B100" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>15</v>
@@ -4119,10 +4122,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" ht="19" customHeight="1" spans="1:8">
+    <row r="101" customHeight="1" spans="1:8">
       <c r="A101" s="3"/>
       <c r="B101" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>15</v>
@@ -4134,17 +4137,17 @@
         <v>11</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" ht="19" customHeight="1" spans="1:8">
+    <row r="102" customHeight="1" spans="1:8">
       <c r="A102" s="3"/>
       <c r="B102" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>15</v>
@@ -4163,10 +4166,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" ht="19" customHeight="1" spans="1:8">
+    <row r="103" customHeight="1" spans="1:8">
       <c r="A103" s="3"/>
       <c r="B103" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>15</v>
@@ -4185,10 +4188,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" ht="19" customHeight="1" spans="1:8">
+    <row r="104" customHeight="1" spans="1:8">
       <c r="A104" s="3"/>
       <c r="B104" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>15</v>
@@ -4207,10 +4210,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" ht="19" customHeight="1" spans="1:8">
+    <row r="105" customHeight="1" spans="1:8">
       <c r="A105" s="3"/>
       <c r="B105" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>19</v>
@@ -4225,10 +4228,10 @@
       <c r="G105" s="7"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" ht="19" customHeight="1" spans="1:8">
+    <row r="106" customHeight="1" spans="1:8">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>15</v>
@@ -4240,17 +4243,17 @@
         <v>11</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" ht="19" customHeight="1" spans="1:8">
+    <row r="107" customHeight="1" spans="1:8">
       <c r="A107" s="3"/>
       <c r="B107" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>15</v>
@@ -4262,17 +4265,17 @@
         <v>11</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" ht="19" customHeight="1" spans="1:8">
+    <row r="108" customHeight="1" spans="1:8">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>15</v>
@@ -4291,10 +4294,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" ht="19" customHeight="1" spans="1:8">
+    <row r="109" customHeight="1" spans="1:8">
       <c r="A109" s="3"/>
       <c r="B109" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>27</v>
@@ -4309,10 +4312,10 @@
       <c r="G109" s="7"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" ht="19" customHeight="1" spans="1:8">
+    <row r="110" customHeight="1" spans="1:8">
       <c r="A110" s="3"/>
       <c r="B110" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>15</v>
@@ -4331,10 +4334,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" ht="19" customHeight="1" spans="1:8">
+    <row r="111" customHeight="1" spans="1:8">
       <c r="A111" s="3"/>
       <c r="B111" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>15</v>
@@ -4353,10 +4356,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" ht="19" customHeight="1" spans="1:8">
+    <row r="112" customHeight="1" spans="1:8">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>15</v>
@@ -4375,10 +4378,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" ht="19" customHeight="1" spans="1:8">
+    <row r="113" customHeight="1" spans="1:8">
       <c r="A113" s="3"/>
       <c r="B113" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>15</v>
@@ -4397,10 +4400,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" ht="19" customHeight="1" spans="1:8">
+    <row r="114" customHeight="1" spans="1:8">
       <c r="A114" s="3"/>
       <c r="B114" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>27</v>
@@ -4415,10 +4418,10 @@
       <c r="G114" s="7"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" ht="19" customHeight="1" spans="1:8">
+    <row r="115" customHeight="1" spans="1:8">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>27</v>
@@ -4433,10 +4436,10 @@
       <c r="G115" s="7"/>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" ht="19" customHeight="1" spans="1:8">
+    <row r="116" customHeight="1" spans="1:8">
       <c r="A116" s="3"/>
       <c r="B116" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>27</v>
@@ -4451,10 +4454,10 @@
       <c r="G116" s="7"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" ht="19" customHeight="1" spans="1:8">
+    <row r="117" customHeight="1" spans="1:8">
       <c r="A117" s="3"/>
       <c r="B117" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>27</v>
@@ -4469,10 +4472,10 @@
       <c r="G117" s="7"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" ht="19" customHeight="1" spans="1:8">
+    <row r="118" customHeight="1" spans="1:8">
       <c r="A118" s="3"/>
       <c r="B118" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>27</v>
@@ -4487,10 +4490,10 @@
       <c r="G118" s="7"/>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" ht="19" customHeight="1" spans="1:8">
+    <row r="119" customHeight="1" spans="1:8">
       <c r="A119" s="3"/>
       <c r="B119" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>27</v>
@@ -4505,10 +4508,10 @@
       <c r="G119" s="7"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" ht="19" customHeight="1" spans="1:8">
+    <row r="120" customHeight="1" spans="1:8">
       <c r="A120" s="3"/>
       <c r="B120" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>27</v>
@@ -4523,10 +4526,10 @@
       <c r="G120" s="7"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" ht="19" customHeight="1" spans="1:8">
+    <row r="121" customHeight="1" spans="1:8">
       <c r="A121" s="3"/>
       <c r="B121" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>27</v>
@@ -4541,10 +4544,10 @@
       <c r="G121" s="7"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" ht="19" customHeight="1" spans="1:8">
+    <row r="122" customHeight="1" spans="1:8">
       <c r="A122" s="3"/>
       <c r="B122" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>27</v>
@@ -4559,10 +4562,10 @@
       <c r="G122" s="7"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" ht="19" customHeight="1" spans="1:8">
+    <row r="123" customHeight="1" spans="1:8">
       <c r="A123" s="3"/>
       <c r="B123" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>27</v>
@@ -4577,10 +4580,10 @@
       <c r="G123" s="7"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" ht="19" customHeight="1" spans="1:8">
+    <row r="124" customHeight="1" spans="1:8">
       <c r="A124" s="3"/>
       <c r="B124" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>27</v>
@@ -4595,10 +4598,10 @@
       <c r="G124" s="7"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" ht="19" customHeight="1" spans="1:8">
+    <row r="125" customHeight="1" spans="1:8">
       <c r="A125" s="3"/>
       <c r="B125" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>27</v>
@@ -4613,10 +4616,10 @@
       <c r="G125" s="7"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" ht="19" customHeight="1" spans="1:8">
+    <row r="126" customHeight="1" spans="1:8">
       <c r="A126" s="3"/>
       <c r="B126" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>27</v>
@@ -4631,10 +4634,10 @@
       <c r="G126" s="7"/>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" ht="19" customHeight="1" spans="1:8">
+    <row r="127" customHeight="1" spans="1:8">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>15</v>
@@ -4653,10 +4656,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" ht="19" customHeight="1" spans="1:8">
+    <row r="128" customHeight="1" spans="1:8">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>15</v>
@@ -4675,10 +4678,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" ht="19" customHeight="1" spans="1:8">
+    <row r="129" customHeight="1" spans="1:8">
       <c r="A129" s="3"/>
       <c r="B129" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>15</v>
@@ -4697,10 +4700,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" ht="19" customHeight="1" spans="1:8">
+    <row r="130" customHeight="1" spans="1:8">
       <c r="A130" s="3"/>
       <c r="B130" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>27</v>
@@ -4715,10 +4718,10 @@
       <c r="G130" s="7"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" ht="19" customHeight="1" spans="1:8">
+    <row r="131" customHeight="1" spans="1:8">
       <c r="A131" s="3"/>
       <c r="B131" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>27</v>
@@ -4733,10 +4736,10 @@
       <c r="G131" s="7"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" ht="19" customHeight="1" spans="1:8">
+    <row r="132" customHeight="1" spans="1:8">
       <c r="A132" s="3"/>
       <c r="B132" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>10</v>
@@ -4755,10 +4758,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" ht="19" customHeight="1" spans="1:8">
+    <row r="133" customHeight="1" spans="1:8">
       <c r="A133" s="3"/>
       <c r="B133" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>10</v>
@@ -4777,10 +4780,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" ht="19" customHeight="1" spans="1:8">
+    <row r="134" customHeight="1" spans="1:8">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>10</v>
@@ -4799,10 +4802,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" ht="19" customHeight="1" spans="1:8">
+    <row r="135" customHeight="1" spans="1:8">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>10</v>
@@ -4821,10 +4824,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" ht="19" customHeight="1" spans="1:8">
+    <row r="136" customHeight="1" spans="1:8">
       <c r="A136" s="3"/>
       <c r="B136" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>10</v>
@@ -4843,10 +4846,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" ht="19" customHeight="1" spans="1:8">
+    <row r="137" customHeight="1" spans="1:8">
       <c r="A137" s="3"/>
       <c r="B137" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>10</v>
@@ -4865,10 +4868,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" ht="19" customHeight="1" spans="1:8">
+    <row r="138" customHeight="1" spans="1:8">
       <c r="A138" s="3"/>
       <c r="B138" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>10</v>
@@ -4887,10 +4890,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" ht="19" customHeight="1" spans="1:8">
+    <row r="139" customHeight="1" spans="1:8">
       <c r="A139" s="3"/>
       <c r="B139" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>10</v>
@@ -4909,10 +4912,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" ht="19" customHeight="1" spans="1:8">
+    <row r="140" customHeight="1" spans="1:8">
       <c r="A140" s="3"/>
       <c r="B140" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>10</v>
@@ -4931,10 +4934,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" ht="19" customHeight="1" spans="1:8">
+    <row r="141" customHeight="1" spans="1:8">
       <c r="A141" s="3"/>
       <c r="B141" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>10</v>
@@ -4951,10 +4954,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" customHeight="1" spans="1:8">
       <c r="A142" s="3"/>
       <c r="B142" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>10</v>
@@ -4973,10 +4976,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" customHeight="1" spans="1:8">
       <c r="A143" s="3"/>
       <c r="B143" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>10</v>
@@ -4995,10 +4998,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" customHeight="1" spans="1:8">
       <c r="A144" s="3"/>
       <c r="B144" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>10</v>
@@ -5017,10 +5020,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" customHeight="1" spans="1:8">
       <c r="A145" s="3"/>
       <c r="B145" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>10</v>
@@ -5039,10 +5042,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" customHeight="1" spans="1:8">
       <c r="A146" s="3"/>
       <c r="B146" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>10</v>
@@ -5058,13 +5061,13 @@
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="147" ht="19" customHeight="1" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:8">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>27</v>
@@ -5079,10 +5082,10 @@
       <c r="G147" s="16"/>
       <c r="H147" s="17"/>
     </row>
-    <row r="148" ht="19" customHeight="1" spans="1:8">
+    <row r="148" customHeight="1" spans="1:8">
       <c r="A148" s="3"/>
       <c r="B148" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>27</v>
@@ -5097,10 +5100,10 @@
       <c r="G148" s="16"/>
       <c r="H148" s="17"/>
     </row>
-    <row r="149" ht="19" customHeight="1" spans="1:8">
+    <row r="149" customHeight="1" spans="1:8">
       <c r="A149" s="3"/>
       <c r="B149" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>27</v>
@@ -5115,10 +5118,10 @@
       <c r="G149" s="4"/>
       <c r="H149" s="17"/>
     </row>
-    <row r="150" ht="19" customHeight="1" spans="1:8">
+    <row r="150" customHeight="1" spans="1:8">
       <c r="A150" s="3"/>
       <c r="B150" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>27</v>
@@ -5133,10 +5136,10 @@
       <c r="G150" s="4"/>
       <c r="H150" s="17"/>
     </row>
-    <row r="151" ht="19" customHeight="1" spans="1:8">
+    <row r="151" customHeight="1" spans="1:8">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>15</v>
@@ -5155,10 +5158,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" ht="19" customHeight="1" spans="1:8">
+    <row r="152" customHeight="1" spans="1:8">
       <c r="A152" s="3"/>
       <c r="B152" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>15</v>
@@ -5177,10 +5180,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" ht="19" customHeight="1" spans="1:8">
+    <row r="153" customHeight="1" spans="1:8">
       <c r="A153" s="3"/>
       <c r="B153" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>15</v>
@@ -5199,10 +5202,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" ht="19" customHeight="1" spans="1:8">
+    <row r="154" customHeight="1" spans="1:8">
       <c r="A154" s="3"/>
       <c r="B154" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>15</v>
@@ -5221,10 +5224,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" ht="19" customHeight="1" spans="1:8">
+    <row r="155" customHeight="1" spans="1:8">
       <c r="A155" s="3"/>
       <c r="B155" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>15</v>
@@ -5243,10 +5246,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" ht="19" customHeight="1" spans="1:8">
+    <row r="156" customHeight="1" spans="1:8">
       <c r="A156" s="3"/>
       <c r="B156" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>15</v>
@@ -5265,10 +5268,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" ht="19" customHeight="1" spans="1:8">
+    <row r="157" customHeight="1" spans="1:8">
       <c r="A157" s="3"/>
       <c r="B157" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>15</v>
@@ -5287,7 +5290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" ht="19" customHeight="1" spans="1:8">
+    <row r="158" customHeight="1" spans="1:8">
       <c r="A158" s="3"/>
       <c r="B158" s="15"/>
       <c r="C158" s="3"/>
@@ -5297,7 +5300,7 @@
       <c r="G158" s="16"/>
       <c r="H158" s="17"/>
     </row>
-    <row r="159" ht="19" customHeight="1" spans="1:8">
+    <row r="159" customHeight="1" spans="1:8">
       <c r="A159" s="3"/>
       <c r="B159" s="15"/>
       <c r="C159" s="3"/>
@@ -5307,135 +5310,115 @@
       <c r="G159" s="16"/>
       <c r="H159" s="17"/>
     </row>
-    <row r="160" ht="19" customHeight="1" spans="1:8">
+    <row r="160" customHeight="1" spans="1:8">
       <c r="A160" s="3"/>
       <c r="B160" s="15"/>
-      <c r="C160" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C160" s="3"/>
       <c r="D160" s="18"/>
       <c r="E160" s="6"/>
       <c r="F160" s="15"/>
       <c r="G160" s="16"/>
       <c r="H160" s="17"/>
     </row>
-    <row r="161" ht="19" customHeight="1" spans="1:8">
+    <row r="161" customHeight="1" spans="1:8">
       <c r="A161" s="3"/>
       <c r="B161" s="15"/>
-      <c r="C161" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C161" s="3"/>
       <c r="D161" s="18"/>
       <c r="E161" s="6"/>
       <c r="F161" s="15"/>
       <c r="G161" s="16"/>
       <c r="H161" s="17"/>
     </row>
-    <row r="162" ht="19" customHeight="1" spans="1:8">
+    <row r="162" customHeight="1" spans="1:8">
       <c r="A162" s="3"/>
       <c r="B162" s="15"/>
-      <c r="C162" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C162" s="3"/>
       <c r="D162" s="18"/>
       <c r="E162" s="6"/>
       <c r="F162" s="15"/>
       <c r="G162" s="16"/>
       <c r="H162" s="17"/>
     </row>
-    <row r="163" ht="19" customHeight="1" spans="1:8">
+    <row r="163" customHeight="1" spans="1:8">
       <c r="A163" s="3"/>
       <c r="B163" s="15"/>
-      <c r="C163" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C163" s="3"/>
       <c r="D163" s="18"/>
       <c r="E163" s="6"/>
       <c r="F163" s="15"/>
       <c r="G163" s="16"/>
       <c r="H163" s="17"/>
     </row>
-    <row r="164" ht="19" customHeight="1" spans="1:8">
+    <row r="164" customHeight="1" spans="1:8">
       <c r="A164" s="3"/>
       <c r="B164" s="15"/>
-      <c r="C164" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C164" s="3"/>
       <c r="D164" s="18"/>
       <c r="E164" s="6"/>
       <c r="F164" s="15"/>
       <c r="G164" s="16"/>
       <c r="H164" s="17"/>
     </row>
-    <row r="165" ht="19" customHeight="1" spans="1:8">
+    <row r="165" customHeight="1" spans="1:8">
       <c r="A165" s="3"/>
       <c r="B165" s="15"/>
-      <c r="C165" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C165" s="3"/>
       <c r="D165" s="18"/>
       <c r="E165" s="6"/>
       <c r="F165" s="15"/>
       <c r="G165" s="16"/>
       <c r="H165" s="17"/>
     </row>
-    <row r="166" ht="19" customHeight="1" spans="1:8">
+    <row r="166" customHeight="1" spans="1:8">
       <c r="A166" s="3"/>
       <c r="B166" s="15"/>
-      <c r="C166" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C166" s="3"/>
       <c r="D166" s="18"/>
       <c r="E166" s="6"/>
       <c r="F166" s="15"/>
       <c r="G166" s="16"/>
       <c r="H166" s="17"/>
     </row>
-    <row r="167" ht="19" customHeight="1" spans="1:8">
+    <row r="167" customHeight="1" spans="1:8">
       <c r="A167" s="3"/>
       <c r="B167" s="15"/>
-      <c r="C167" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C167" s="3"/>
       <c r="D167" s="18"/>
       <c r="E167" s="6"/>
       <c r="F167" s="15"/>
       <c r="G167" s="16"/>
       <c r="H167" s="17"/>
     </row>
-    <row r="168" ht="19" customHeight="1" spans="1:8">
+    <row r="168" customHeight="1" spans="1:8">
       <c r="A168" s="3"/>
       <c r="B168" s="15"/>
-      <c r="C168" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C168" s="3"/>
       <c r="D168" s="18"/>
       <c r="E168" s="6"/>
       <c r="F168" s="15"/>
       <c r="G168" s="16"/>
       <c r="H168" s="17"/>
     </row>
-    <row r="169" ht="19" customHeight="1" spans="1:8">
+    <row r="169" customHeight="1" spans="1:8">
       <c r="A169" s="3"/>
       <c r="B169" s="15"/>
-      <c r="C169" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C169" s="3"/>
       <c r="D169" s="18"/>
       <c r="E169" s="6"/>
       <c r="F169" s="15"/>
       <c r="G169" s="16"/>
       <c r="H169" s="17"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" customHeight="1" spans="1:8">
       <c r="A170" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="C170" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D170" s="6">
         <v>1</v>
@@ -5445,17 +5428,17 @@
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" customHeight="1" spans="1:8">
       <c r="A171" s="5"/>
       <c r="B171" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D171" s="6">
         <v>1</v>
@@ -5465,17 +5448,17 @@
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" customHeight="1" spans="1:8">
       <c r="A172" s="5"/>
       <c r="B172" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D172" s="6">
         <v>1</v>
@@ -5485,17 +5468,17 @@
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" ht="19" customHeight="1" spans="1:8">
+    <row r="173" customHeight="1" spans="1:8">
       <c r="A173" s="5"/>
       <c r="B173" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D173" s="6">
         <v>2</v>
@@ -5505,19 +5488,19 @@
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H173" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H173" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+    </row>
+    <row r="174" customHeight="1" spans="1:8">
       <c r="A174" s="5"/>
       <c r="B174" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D174" s="6">
         <v>1</v>
@@ -5527,17 +5510,17 @@
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" customHeight="1" spans="1:8">
       <c r="A175" s="5"/>
       <c r="B175" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D175" s="6">
         <v>2</v>
@@ -5547,17 +5530,17 @@
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" customHeight="1" spans="1:8">
       <c r="A176" s="5"/>
       <c r="B176" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D176" s="6">
         <v>1</v>
@@ -5567,17 +5550,17 @@
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H176" s="9"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" customHeight="1" spans="1:8">
       <c r="A177" s="5"/>
       <c r="B177" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D177" s="6">
         <v>1</v>
@@ -5587,19 +5570,19 @@
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H177" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H177" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" ht="19" customHeight="1" spans="1:8">
+    </row>
+    <row r="178" customHeight="1" spans="1:8">
       <c r="A178" s="5"/>
       <c r="B178" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D178" s="6">
         <v>1</v>
@@ -5609,17 +5592,17 @@
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H178" s="9"/>
     </row>
-    <row r="179" ht="19" customHeight="1" spans="1:8">
+    <row r="179" customHeight="1" spans="1:8">
       <c r="A179" s="5"/>
       <c r="B179" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D179" s="6">
         <v>1</v>
@@ -5629,17 +5612,17 @@
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H179" s="9"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" customHeight="1" spans="1:8">
       <c r="A180" s="5"/>
       <c r="B180" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D180" s="6">
         <v>2</v>
@@ -5649,17 +5632,17 @@
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H180" s="9"/>
     </row>
-    <row r="181" ht="19" customHeight="1" spans="1:8">
+    <row r="181" customHeight="1" spans="1:8">
       <c r="A181" s="5"/>
       <c r="B181" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D181" s="20">
         <v>1</v>
@@ -5669,17 +5652,17 @@
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H181" s="9"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" customHeight="1" spans="1:8">
       <c r="A182" s="5"/>
       <c r="B182" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D182" s="6">
         <v>2</v>
@@ -5689,19 +5672,19 @@
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H182" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H182" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="183" ht="20" customHeight="1" spans="1:8">
+    </row>
+    <row r="183" customHeight="1" spans="1:8">
       <c r="A183" s="5"/>
       <c r="B183" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D183" s="20">
         <v>2</v>
@@ -5711,19 +5694,19 @@
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H183" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H183" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="184" ht="20" customHeight="1" spans="1:8">
+    </row>
+    <row r="184" customHeight="1" spans="1:8">
       <c r="A184" s="5"/>
       <c r="B184" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D184" s="20">
         <v>1</v>
@@ -5733,16 +5716,16 @@
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H184" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="H184" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="185" ht="20" customHeight="1" spans="1:8">
+    </row>
+    <row r="185" customHeight="1" spans="1:8">
       <c r="A185" s="5"/>
       <c r="B185" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>19</v>
@@ -5755,16 +5738,16 @@
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="186" ht="20" customHeight="1" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:8">
       <c r="A186" s="5"/>
       <c r="B186" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>19</v>
@@ -5779,10 +5762,10 @@
       <c r="G186" s="7"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" ht="20" customHeight="1" spans="1:8">
+    <row r="187" customHeight="1" spans="1:8">
       <c r="A187" s="5"/>
       <c r="B187" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>19</v>
@@ -5797,10 +5780,10 @@
       <c r="G187" s="4"/>
       <c r="H187" s="9"/>
     </row>
-    <row r="188" ht="20" customHeight="1" spans="1:8">
+    <row r="188" customHeight="1" spans="1:8">
       <c r="A188" s="5"/>
       <c r="B188" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>19</v>
@@ -5815,10 +5798,10 @@
       <c r="G188" s="4"/>
       <c r="H188" s="9"/>
     </row>
-    <row r="189" ht="13.8" spans="1:8">
+    <row r="189" customHeight="1" spans="1:8">
       <c r="A189" s="5"/>
       <c r="B189" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>19</v>
@@ -5833,10 +5816,10 @@
       <c r="G189" s="4"/>
       <c r="H189" s="9"/>
     </row>
-    <row r="190" ht="13.8" spans="1:8">
+    <row r="190" customHeight="1" spans="1:8">
       <c r="A190" s="5"/>
       <c r="B190" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>19</v>
@@ -5851,10 +5834,10 @@
       <c r="G190" s="4"/>
       <c r="H190" s="9"/>
     </row>
-    <row r="191" ht="13.8" spans="1:8">
+    <row r="191" customHeight="1" spans="1:8">
       <c r="A191" s="5"/>
       <c r="B191" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>19</v>
@@ -5869,10 +5852,10 @@
       <c r="G191" s="4"/>
       <c r="H191" s="9"/>
     </row>
-    <row r="192" ht="13.8" spans="1:8">
+    <row r="192" customHeight="1" spans="1:8">
       <c r="A192" s="5"/>
       <c r="B192" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>19</v>
@@ -5887,10 +5870,10 @@
       <c r="G192" s="4"/>
       <c r="H192" s="9"/>
     </row>
-    <row r="193" ht="13.8" spans="1:8">
+    <row r="193" customHeight="1" spans="1:8">
       <c r="A193" s="5"/>
       <c r="B193" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>19</v>
@@ -5905,10 +5888,10 @@
       <c r="G193" s="4"/>
       <c r="H193" s="9"/>
     </row>
-    <row r="194" ht="13.8" spans="1:8">
+    <row r="194" customHeight="1" spans="1:8">
       <c r="A194" s="5"/>
       <c r="B194" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C194" s="23" t="s">
         <v>19</v>
@@ -5923,10 +5906,10 @@
       <c r="G194" s="26"/>
       <c r="H194" s="25"/>
     </row>
-    <row r="195" ht="13.8" spans="1:8">
+    <row r="195" customHeight="1" spans="1:8">
       <c r="A195" s="5"/>
       <c r="B195" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>19</v>
@@ -5941,10 +5924,10 @@
       <c r="G195" s="4"/>
       <c r="H195" s="9"/>
     </row>
-    <row r="196" ht="13.8" spans="1:8">
+    <row r="196" customHeight="1" spans="1:8">
       <c r="A196" s="5"/>
       <c r="B196" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>19</v>
@@ -5959,13 +5942,13 @@
       <c r="G196" s="4"/>
       <c r="H196" s="9"/>
     </row>
-    <row r="197" ht="13.8" spans="1:8">
+    <row r="197" customHeight="1" spans="1:8">
       <c r="A197" s="5"/>
       <c r="B197" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D197" s="20">
         <v>1</v>
@@ -5975,17 +5958,29 @@
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="9"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="27"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="G198" s="30"/>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H197" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="1:8">
+      <c r="A198" s="5"/>
+      <c r="B198" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="20">
+        <v>1</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="9"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="9"/>
+    </row>
+    <row r="199" customHeight="1" spans="1:7">
       <c r="A199" s="27"/>
       <c r="B199" s="28"/>
       <c r="C199" s="29"/>
@@ -5993,23 +5988,23 @@
       <c r="E199" s="27"/>
       <c r="G199" s="30"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" customHeight="1" spans="1:7">
       <c r="A200" s="27"/>
-      <c r="B200" s="30"/>
+      <c r="B200" s="28"/>
       <c r="C200" s="29"/>
       <c r="D200" s="27"/>
       <c r="E200" s="27"/>
       <c r="G200" s="30"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" customHeight="1" spans="1:7">
       <c r="A201" s="27"/>
       <c r="B201" s="30"/>
       <c r="C201" s="29"/>
-      <c r="D201" s="28"/>
+      <c r="D201" s="27"/>
       <c r="E201" s="27"/>
       <c r="G201" s="30"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" customHeight="1" spans="1:7">
       <c r="A202" s="27"/>
       <c r="B202" s="30"/>
       <c r="C202" s="29"/>
@@ -6017,7 +6012,7 @@
       <c r="E202" s="27"/>
       <c r="G202" s="30"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" customHeight="1" spans="1:7">
       <c r="A203" s="27"/>
       <c r="B203" s="30"/>
       <c r="C203" s="29"/>
@@ -6025,419 +6020,427 @@
       <c r="E203" s="27"/>
       <c r="G203" s="30"/>
     </row>
-    <row r="204" spans="7:7">
+    <row r="204" customHeight="1" spans="1:7">
+      <c r="A204" s="27"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="29"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="27"/>
       <c r="G204" s="30"/>
     </row>
-    <row r="205" spans="7:7">
+    <row r="205" customHeight="1" spans="7:7">
       <c r="G205" s="30"/>
     </row>
-    <row r="206" spans="7:7">
+    <row r="206" customHeight="1" spans="7:7">
       <c r="G206" s="30"/>
     </row>
-    <row r="207" spans="7:7">
+    <row r="207" customHeight="1" spans="7:7">
       <c r="G207" s="30"/>
     </row>
-    <row r="208" spans="7:7">
+    <row r="208" customHeight="1" spans="7:7">
       <c r="G208" s="30"/>
     </row>
-    <row r="209" spans="7:7">
+    <row r="209" customHeight="1" spans="7:7">
       <c r="G209" s="30"/>
     </row>
-    <row r="210" spans="7:7">
+    <row r="210" customHeight="1" spans="7:7">
       <c r="G210" s="30"/>
     </row>
-    <row r="211" spans="7:7">
+    <row r="211" customHeight="1" spans="7:7">
       <c r="G211" s="30"/>
     </row>
-    <row r="212" spans="7:7">
+    <row r="212" customHeight="1" spans="7:7">
       <c r="G212" s="30"/>
     </row>
-    <row r="213" spans="7:7">
+    <row r="213" customHeight="1" spans="7:7">
       <c r="G213" s="30"/>
     </row>
-    <row r="214" spans="7:7">
+    <row r="214" customHeight="1" spans="7:7">
       <c r="G214" s="30"/>
     </row>
-    <row r="215" spans="7:7">
+    <row r="215" customHeight="1" spans="7:7">
       <c r="G215" s="30"/>
     </row>
-    <row r="216" spans="7:7">
+    <row r="216" customHeight="1" spans="7:7">
       <c r="G216" s="30"/>
     </row>
-    <row r="217" spans="7:7">
+    <row r="217" customHeight="1" spans="7:7">
       <c r="G217" s="30"/>
     </row>
-    <row r="218" spans="7:7">
+    <row r="218" customHeight="1" spans="7:7">
       <c r="G218" s="30"/>
     </row>
-    <row r="219" spans="7:7">
+    <row r="219" customHeight="1" spans="7:7">
       <c r="G219" s="30"/>
     </row>
-    <row r="220" spans="7:7">
+    <row r="220" customHeight="1" spans="7:7">
       <c r="G220" s="30"/>
     </row>
-    <row r="221" spans="7:7">
+    <row r="221" customHeight="1" spans="7:7">
       <c r="G221" s="30"/>
     </row>
-    <row r="222" spans="7:7">
+    <row r="222" customHeight="1" spans="7:7">
       <c r="G222" s="30"/>
     </row>
-    <row r="223" spans="7:7">
+    <row r="223" customHeight="1" spans="7:7">
       <c r="G223" s="30"/>
     </row>
-    <row r="224" spans="7:7">
+    <row r="224" customHeight="1" spans="7:7">
       <c r="G224" s="30"/>
     </row>
-    <row r="225" spans="7:7">
+    <row r="225" customHeight="1" spans="7:7">
       <c r="G225" s="30"/>
     </row>
-    <row r="226" spans="7:7">
+    <row r="226" customHeight="1" spans="7:7">
       <c r="G226" s="30"/>
     </row>
-    <row r="227" spans="7:7">
+    <row r="227" customHeight="1" spans="7:7">
       <c r="G227" s="30"/>
     </row>
-    <row r="228" spans="7:7">
+    <row r="228" customHeight="1" spans="7:7">
       <c r="G228" s="30"/>
     </row>
-    <row r="229" spans="7:7">
+    <row r="229" customHeight="1" spans="7:7">
       <c r="G229" s="30"/>
     </row>
-    <row r="230" spans="7:7">
+    <row r="230" customHeight="1" spans="7:7">
       <c r="G230" s="30"/>
     </row>
-    <row r="231" spans="7:7">
+    <row r="231" customHeight="1" spans="7:7">
       <c r="G231" s="30"/>
     </row>
-    <row r="232" spans="7:7">
+    <row r="232" customHeight="1" spans="7:7">
       <c r="G232" s="30"/>
     </row>
-    <row r="233" spans="7:7">
+    <row r="233" customHeight="1" spans="7:7">
       <c r="G233" s="30"/>
     </row>
-    <row r="234" spans="7:7">
+    <row r="234" customHeight="1" spans="7:7">
       <c r="G234" s="30"/>
     </row>
-    <row r="235" spans="7:7">
+    <row r="235" customHeight="1" spans="7:7">
       <c r="G235" s="30"/>
     </row>
-    <row r="236" spans="7:7">
+    <row r="236" customHeight="1" spans="7:7">
       <c r="G236" s="30"/>
     </row>
-    <row r="237" spans="7:7">
+    <row r="237" customHeight="1" spans="7:7">
       <c r="G237" s="30"/>
     </row>
-    <row r="238" spans="7:7">
+    <row r="238" customHeight="1" spans="7:7">
       <c r="G238" s="30"/>
     </row>
-    <row r="239" spans="7:7">
+    <row r="239" customHeight="1" spans="7:7">
       <c r="G239" s="30"/>
     </row>
-    <row r="240" spans="7:7">
+    <row r="240" customHeight="1" spans="7:7">
       <c r="G240" s="30"/>
     </row>
-    <row r="241" spans="7:7">
+    <row r="241" customHeight="1" spans="7:7">
       <c r="G241" s="30"/>
     </row>
-    <row r="242" spans="7:7">
+    <row r="242" customHeight="1" spans="7:7">
       <c r="G242" s="30"/>
     </row>
-    <row r="243" spans="7:7">
+    <row r="243" customHeight="1" spans="7:7">
       <c r="G243" s="30"/>
     </row>
-    <row r="244" spans="7:7">
+    <row r="244" customHeight="1" spans="7:7">
       <c r="G244" s="30"/>
     </row>
-    <row r="245" spans="7:7">
+    <row r="245" customHeight="1" spans="7:7">
       <c r="G245" s="30"/>
     </row>
-    <row r="246" spans="7:7">
+    <row r="246" customHeight="1" spans="7:7">
       <c r="G246" s="30"/>
     </row>
-    <row r="247" spans="7:7">
+    <row r="247" customHeight="1" spans="7:7">
       <c r="G247" s="30"/>
     </row>
-    <row r="248" spans="7:7">
+    <row r="248" customHeight="1" spans="7:7">
       <c r="G248" s="30"/>
     </row>
-    <row r="249" spans="7:7">
+    <row r="249" customHeight="1" spans="7:7">
       <c r="G249" s="30"/>
     </row>
-    <row r="250" spans="7:7">
+    <row r="250" customHeight="1" spans="7:7">
       <c r="G250" s="30"/>
     </row>
-    <row r="251" spans="7:7">
+    <row r="251" customHeight="1" spans="7:7">
       <c r="G251" s="30"/>
     </row>
-    <row r="252" spans="7:7">
+    <row r="252" customHeight="1" spans="7:7">
       <c r="G252" s="30"/>
     </row>
-    <row r="253" spans="7:7">
+    <row r="253" customHeight="1" spans="7:7">
       <c r="G253" s="30"/>
     </row>
-    <row r="254" spans="7:7">
+    <row r="254" customHeight="1" spans="7:7">
       <c r="G254" s="30"/>
     </row>
-    <row r="255" spans="7:7">
+    <row r="255" customHeight="1" spans="7:7">
       <c r="G255" s="30"/>
     </row>
-    <row r="256" spans="7:7">
+    <row r="256" customHeight="1" spans="7:7">
       <c r="G256" s="30"/>
     </row>
-    <row r="257" spans="7:7">
+    <row r="257" customHeight="1" spans="7:7">
       <c r="G257" s="30"/>
     </row>
-    <row r="258" spans="7:7">
+    <row r="258" customHeight="1" spans="7:7">
       <c r="G258" s="30"/>
     </row>
-    <row r="259" spans="7:7">
+    <row r="259" customHeight="1" spans="7:7">
       <c r="G259" s="30"/>
     </row>
-    <row r="260" spans="7:7">
+    <row r="260" customHeight="1" spans="7:7">
       <c r="G260" s="30"/>
     </row>
-    <row r="261" spans="7:7">
+    <row r="261" customHeight="1" spans="7:7">
       <c r="G261" s="30"/>
     </row>
-    <row r="262" spans="7:7">
+    <row r="262" customHeight="1" spans="7:7">
       <c r="G262" s="30"/>
     </row>
-    <row r="263" spans="7:7">
+    <row r="263" customHeight="1" spans="7:7">
       <c r="G263" s="30"/>
     </row>
-    <row r="264" spans="7:7">
+    <row r="264" customHeight="1" spans="7:7">
       <c r="G264" s="30"/>
     </row>
-    <row r="265" spans="7:7">
+    <row r="265" customHeight="1" spans="7:7">
       <c r="G265" s="30"/>
     </row>
-    <row r="266" spans="7:7">
+    <row r="266" customHeight="1" spans="7:7">
       <c r="G266" s="30"/>
     </row>
-    <row r="267" spans="7:7">
+    <row r="267" customHeight="1" spans="7:7">
       <c r="G267" s="30"/>
     </row>
-    <row r="268" spans="7:7">
+    <row r="268" customHeight="1" spans="7:7">
       <c r="G268" s="30"/>
     </row>
-    <row r="269" spans="7:7">
+    <row r="269" customHeight="1" spans="7:7">
       <c r="G269" s="30"/>
     </row>
-    <row r="270" spans="7:7">
+    <row r="270" customHeight="1" spans="7:7">
       <c r="G270" s="30"/>
     </row>
-    <row r="271" spans="7:7">
+    <row r="271" customHeight="1" spans="7:7">
       <c r="G271" s="30"/>
     </row>
-    <row r="272" spans="7:7">
+    <row r="272" customHeight="1" spans="7:7">
       <c r="G272" s="30"/>
     </row>
-    <row r="273" spans="7:7">
+    <row r="273" customHeight="1" spans="7:7">
       <c r="G273" s="30"/>
     </row>
-    <row r="274" spans="7:7">
+    <row r="274" customHeight="1" spans="7:7">
       <c r="G274" s="30"/>
     </row>
-    <row r="275" spans="7:7">
+    <row r="275" customHeight="1" spans="7:7">
       <c r="G275" s="30"/>
     </row>
-    <row r="276" spans="7:7">
+    <row r="276" customHeight="1" spans="7:7">
       <c r="G276" s="30"/>
     </row>
-    <row r="277" spans="7:7">
+    <row r="277" customHeight="1" spans="7:7">
       <c r="G277" s="30"/>
     </row>
-    <row r="278" spans="7:7">
+    <row r="278" customHeight="1" spans="7:7">
       <c r="G278" s="30"/>
     </row>
-    <row r="279" spans="7:7">
+    <row r="279" customHeight="1" spans="7:7">
       <c r="G279" s="30"/>
     </row>
-    <row r="280" spans="7:7">
+    <row r="280" customHeight="1" spans="7:7">
       <c r="G280" s="30"/>
     </row>
-    <row r="281" spans="7:7">
+    <row r="281" customHeight="1" spans="7:7">
       <c r="G281" s="30"/>
     </row>
-    <row r="282" spans="7:7">
+    <row r="282" customHeight="1" spans="7:7">
       <c r="G282" s="30"/>
     </row>
-    <row r="283" spans="7:7">
+    <row r="283" customHeight="1" spans="7:7">
       <c r="G283" s="30"/>
     </row>
-    <row r="284" spans="7:7">
+    <row r="284" customHeight="1" spans="7:7">
       <c r="G284" s="30"/>
     </row>
-    <row r="285" spans="7:7">
+    <row r="285" customHeight="1" spans="7:7">
       <c r="G285" s="30"/>
     </row>
-    <row r="286" spans="7:7">
+    <row r="286" customHeight="1" spans="7:7">
       <c r="G286" s="30"/>
     </row>
-    <row r="287" spans="7:7">
+    <row r="287" customHeight="1" spans="7:7">
       <c r="G287" s="30"/>
     </row>
-    <row r="288" spans="7:7">
+    <row r="288" customHeight="1" spans="7:7">
       <c r="G288" s="30"/>
     </row>
-    <row r="289" spans="7:7">
+    <row r="289" customHeight="1" spans="7:7">
       <c r="G289" s="30"/>
     </row>
-    <row r="290" spans="7:7">
+    <row r="290" customHeight="1" spans="7:7">
       <c r="G290" s="30"/>
     </row>
-    <row r="291" spans="7:7">
+    <row r="291" customHeight="1" spans="7:7">
       <c r="G291" s="30"/>
     </row>
-    <row r="292" spans="7:7">
+    <row r="292" customHeight="1" spans="7:7">
       <c r="G292" s="30"/>
     </row>
-    <row r="293" spans="7:7">
+    <row r="293" customHeight="1" spans="7:7">
       <c r="G293" s="30"/>
     </row>
-    <row r="294" spans="7:7">
+    <row r="294" customHeight="1" spans="7:7">
       <c r="G294" s="30"/>
     </row>
-    <row r="295" spans="7:7">
+    <row r="295" customHeight="1" spans="7:7">
       <c r="G295" s="30"/>
     </row>
-    <row r="296" spans="7:7">
+    <row r="296" customHeight="1" spans="7:7">
       <c r="G296" s="30"/>
     </row>
-    <row r="297" spans="7:7">
+    <row r="297" customHeight="1" spans="7:7">
       <c r="G297" s="30"/>
     </row>
-    <row r="298" spans="7:7">
+    <row r="298" customHeight="1" spans="7:7">
       <c r="G298" s="30"/>
     </row>
-    <row r="299" spans="7:7">
+    <row r="299" customHeight="1" spans="7:7">
       <c r="G299" s="30"/>
     </row>
-    <row r="300" spans="7:7">
+    <row r="300" customHeight="1" spans="7:7">
       <c r="G300" s="30"/>
     </row>
-    <row r="301" spans="7:7">
+    <row r="301" customHeight="1" spans="7:7">
       <c r="G301" s="30"/>
     </row>
-    <row r="302" spans="7:7">
+    <row r="302" customHeight="1" spans="7:7">
       <c r="G302" s="30"/>
     </row>
-    <row r="303" spans="7:7">
+    <row r="303" customHeight="1" spans="7:7">
       <c r="G303" s="30"/>
     </row>
-    <row r="304" spans="7:7">
+    <row r="304" customHeight="1" spans="7:7">
       <c r="G304" s="30"/>
     </row>
-    <row r="305" spans="7:7">
+    <row r="305" customHeight="1" spans="7:7">
       <c r="G305" s="30"/>
     </row>
-    <row r="306" spans="7:7">
+    <row r="306" customHeight="1" spans="7:7">
       <c r="G306" s="30"/>
     </row>
-    <row r="307" spans="7:7">
+    <row r="307" customHeight="1" spans="7:7">
       <c r="G307" s="30"/>
     </row>
-    <row r="308" spans="7:7">
+    <row r="308" customHeight="1" spans="7:7">
       <c r="G308" s="30"/>
     </row>
-    <row r="309" spans="7:7">
+    <row r="309" customHeight="1" spans="7:7">
       <c r="G309" s="30"/>
     </row>
-    <row r="310" spans="7:7">
+    <row r="310" customHeight="1" spans="7:7">
       <c r="G310" s="30"/>
     </row>
-    <row r="311" spans="7:7">
+    <row r="311" customHeight="1" spans="7:7">
       <c r="G311" s="30"/>
     </row>
-    <row r="312" spans="7:7">
+    <row r="312" customHeight="1" spans="7:7">
       <c r="G312" s="30"/>
     </row>
-    <row r="313" spans="7:7">
+    <row r="313" customHeight="1" spans="7:7">
       <c r="G313" s="30"/>
     </row>
-    <row r="314" spans="7:7">
+    <row r="314" customHeight="1" spans="7:7">
       <c r="G314" s="30"/>
     </row>
-    <row r="315" spans="7:7">
+    <row r="315" customHeight="1" spans="7:7">
       <c r="G315" s="30"/>
     </row>
-    <row r="316" spans="7:7">
+    <row r="316" customHeight="1" spans="7:7">
       <c r="G316" s="30"/>
     </row>
-    <row r="317" spans="7:7">
+    <row r="317" customHeight="1" spans="7:7">
       <c r="G317" s="30"/>
     </row>
-    <row r="318" spans="7:7">
+    <row r="318" customHeight="1" spans="7:7">
       <c r="G318" s="30"/>
     </row>
-    <row r="319" spans="7:7">
+    <row r="319" customHeight="1" spans="7:7">
       <c r="G319" s="30"/>
     </row>
-    <row r="320" spans="7:7">
+    <row r="320" customHeight="1" spans="7:7">
       <c r="G320" s="30"/>
     </row>
-    <row r="321" spans="7:7">
+    <row r="321" customHeight="1" spans="7:7">
       <c r="G321" s="30"/>
     </row>
-    <row r="322" spans="7:7">
+    <row r="322" customHeight="1" spans="7:7">
       <c r="G322" s="30"/>
     </row>
-    <row r="323" spans="7:7">
+    <row r="323" customHeight="1" spans="7:7">
       <c r="G323" s="30"/>
     </row>
-    <row r="324" spans="7:7">
+    <row r="324" customHeight="1" spans="7:7">
       <c r="G324" s="30"/>
     </row>
-    <row r="325" spans="7:7">
+    <row r="325" customHeight="1" spans="7:7">
       <c r="G325" s="30"/>
     </row>
-    <row r="326" spans="7:7">
+    <row r="326" customHeight="1" spans="7:7">
       <c r="G326" s="30"/>
     </row>
-    <row r="327" spans="7:7">
+    <row r="327" customHeight="1" spans="7:7">
       <c r="G327" s="30"/>
     </row>
-    <row r="328" spans="7:7">
+    <row r="328" customHeight="1" spans="7:7">
       <c r="G328" s="30"/>
     </row>
-    <row r="329" spans="7:7">
+    <row r="329" customHeight="1" spans="7:7">
       <c r="G329" s="30"/>
     </row>
-    <row r="330" spans="7:7">
+    <row r="330" customHeight="1" spans="7:7">
       <c r="G330" s="30"/>
     </row>
-    <row r="331" spans="7:7">
+    <row r="331" customHeight="1" spans="7:7">
       <c r="G331" s="30"/>
     </row>
-    <row r="332" spans="7:7">
+    <row r="332" customHeight="1" spans="7:7">
       <c r="G332" s="30"/>
     </row>
-    <row r="333" spans="7:7">
+    <row r="333" customHeight="1" spans="7:7">
       <c r="G333" s="30"/>
     </row>
-    <row r="334" spans="7:7">
+    <row r="334" customHeight="1" spans="7:7">
       <c r="G334" s="30"/>
     </row>
-    <row r="335" spans="7:7">
+    <row r="335" customHeight="1" spans="7:7">
       <c r="G335" s="30"/>
     </row>
-    <row r="336" spans="7:7">
+    <row r="336" customHeight="1" spans="7:7">
       <c r="G336" s="30"/>
     </row>
-    <row r="337" spans="7:7">
+    <row r="337" customHeight="1" spans="7:7">
       <c r="G337" s="30"/>
     </row>
-    <row r="338" spans="7:7">
+    <row r="338" customHeight="1" spans="7:7">
       <c r="G338" s="30"/>
+    </row>
+    <row r="339" customHeight="1" spans="7:7">
+      <c r="G339" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A169"/>
-    <mergeCell ref="A170:A197"/>
+    <mergeCell ref="A170:A198"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C104 C105:C338">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C339">
       <formula1>"标准件,机加工,塑胶件,套餐件,电子料"</formula1>
     </dataValidation>
   </dataValidations>

--- a/智元灵犀X1_BOM清单_20241024.xlsx
+++ b/智元灵犀X1_BOM清单_20241024.xlsx
@@ -2049,10 +2049,10 @@
   </sheetPr>
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
+      <selection pane="bottomLeft" activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="25.2" customHeight="1" outlineLevelCol="7"/>
@@ -6466,7 +6466,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <picture r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/智元灵犀X1_BOM清单_20241024.xlsx
+++ b/智元灵犀X1_BOM清单_20241024.xlsx
@@ -227,7 +227,7 @@
     <t>R52</t>
   </si>
   <si>
-    <t>R86</t>
+    <t>R86-2</t>
   </si>
   <si>
     <t>手臂_关节01固定法兰1</t>
@@ -2050,9 +2050,9 @@
   <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I187" sqref="I187"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="25.2" customHeight="1" outlineLevelCol="7"/>
@@ -2510,7 +2510,7 @@
       <c r="G21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>11</v>
@@ -2777,7 +2777,7 @@
         <v>19</v>
       </c>
       <c r="D35" s="5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>11</v>

--- a/智元灵犀X1_BOM清单_20241024.xlsx
+++ b/智元灵犀X1_BOM清单_20241024.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="整机结构BOM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整机结构BOM!$A$1:$H$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整机结构BOM!$A$1:$I$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="239">
   <si>
     <t>类别</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>前壳</t>
-  </si>
-  <si>
-    <t>右肩连接块</t>
   </si>
   <si>
     <t>延长线C口直弯头</t>
@@ -134,13 +131,13 @@
     <t>路由器固定架</t>
   </si>
   <si>
+    <t>本色</t>
+  </si>
+  <si>
     <t>电池固定架镜像</t>
   </si>
   <si>
     <t>中间支架</t>
-  </si>
-  <si>
-    <t>左肩连接块</t>
   </si>
   <si>
     <t>缓启动支架</t>
@@ -182,7 +179,7 @@
     </r>
   </si>
   <si>
-    <t>定制电池包尺寸</t>
+    <t>定制电池金属壳尺寸</t>
   </si>
   <si>
     <t>手机支架底部挡板</t>
@@ -341,7 +338,7 @@
     <t>深沟球轴承SB685ZZ</t>
   </si>
   <si>
-    <t>鱼眼轴承QR-SS-GE 4-1^00_X1手</t>
+    <t>鱼眼轴承QR-SS-GE</t>
   </si>
   <si>
     <t>塞打螺丝5-10</t>
@@ -360,9 +357,6 @@
   </si>
   <si>
     <t>手腕主支架</t>
-  </si>
-  <si>
-    <t>手转接支架</t>
   </si>
   <si>
     <t>鱼眼轴承POS 3 EC X1</t>
@@ -677,16 +671,7 @@
     <t>XW-2290-19-95W，5A大塑胶</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://item.taobao.com/item.htm?abbucket=3&amp;id=670668048692&amp;ns=1&amp;priceTId=213e38fb17262170855021380e21d0&amp;skuId=5005211227515&amp;spm=a21n57.1.item.2.1688523cZDpJiD&amp;utparam=%7B%22aplus_abtest%22%3A%220253cf65b3db2d2b872a9bd5de33347b%22%7D</t>
-    </r>
+    <t>https://item.taobao.com/item.htm?abbucket=3&amp;id=670668048692&amp;ns=1&amp;priceTId=213e38fb17262170855021380e21d0&amp;skuId=5005211227515&amp;spm=a21n57.1.item.2.1688523cZDpJiD&amp;utparam=%7B%22aplus_abtest%22%3A%220253cf65b3db2d2b872a9bd5de33347b%22%7D</t>
   </si>
   <si>
     <t>48V转24V电源转换器，5A输出</t>
@@ -785,16 +770,7 @@
     <t>XT90公座连接线_单端</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://item.taobao.com/item.htm?abbucket=3&amp;id=841799741063&amp;ns=1&amp;pisk=gW_xLJiMd82mQFhr7AZkjVaRs0PlWNC4nt5ISdvmfTBR1L0ggEqwWOpRQKxDlK09W1BNIOCagC91COpGmu4hgs8w5JvT-yfq_ZInvt3XG3N61CD_KxUkuSTw5J2tqVt4JFWFHQnDC0OWUCpsGI6sVUOBFCiX5O9WVBOnhFT1C7dW6BMjGCtsNUODFAg6cqa7PBOBGdO6h7CWUCGp4qptGpuObINF3fETy2uFyIKvBVv-WN_o-3pC8Lg_dORxLp1XeVg63m6Rp_C0H25kuZXptt4Sk9C1TGtRWYwpQaC5lG1rHROPftYWneZjwEbVGMt1RRo6kG6VWnSx_W5WlTSeLnZzUQQc-hpe2YwfZ_pXvGB0UV9cv_6JxaDo-esFeNKBRg7f-whmSvvpsmN8wcowcQPTJKf41OGSrQp3aToZb3dywpV8wcowcQRJK7-rbc-Ja&amp;priceTId=2147818b17285491211812558ec7cd&amp;skuId=5610968368229&amp;spm=a21n57.1.item.3.78be523c2v8iWX&amp;utparam=%7B%22aplus_abtest%22%3A%229f5fe8454d81368fe8f386cf8a9ad2ff%22%7D&amp;xxc=taobaoSearch</t>
-    </r>
+    <t>https://item.taobao.com/item.htm?abbucket=3&amp;id=841799741063&amp;ns=1&amp;pisk=gW_xLJiMd82mQFhr7AZkjVaRs0PlWNC4nt5ISdvmfTBR1L0ggEqwWOpRQKxDlK09W1BNIOCagC91COpGmu4hgs8w5JvT-yfq_ZInvt3XG3N61CD_KxUkuSTw5J2tqVt4JFWFHQnDC0OWUCpsGI6sVUOBFCiX5O9WVBOnhFT1C7dW6BMjGCtsNUODFAg6cqa7PBOBGdO6h7CWUCGp4qptGpuObINF3fETy2uFyIKvBVv-WN_o-3pC8Lg_dORxLp1XeVg63m6Rp_C0H25kuZXptt4Sk9C1TGtRWYwpQaC5lG1rHROPftYWneZjwEbVGMt1RRo6kG6VWnSx_W5WlTSeLnZzUQQc-hpe2YwfZ_pXvGB0UV9cv_6JxaDo-esFeNKBRg7f-whmSvvpsmN8wcowcQPTJKf41OGSrQp3aToZb3dywpV8wcowcQRJK7-rbc-Ja&amp;priceTId=2147818b17285491211812558ec7cd&amp;skuId=5610968368229&amp;spm=a21n57.1.item.3.78be523c2v8iWX&amp;utparam=%7B%22aplus_abtest%22%3A%229f5fe8454d81368fe8f386cf8a9ad2ff%22%7D&amp;xxc=taobaoSearch</t>
   </si>
   <si>
     <t>YIS320_DCU_连接线</t>
@@ -818,6 +794,24 @@
     <t>L28_L28_100mm</t>
   </si>
   <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=3&amp;id=629988356617&amp;ns=1&amp;priceTId=2150433617262858933655312e164d&amp;skuId=5246239779008&amp;spm=a21n57.1.item.3.6d7e523cARXxqd&amp;utparam=%7B%22aplus_abtest%22%3A%22feced0aa20528205c0c4a3478b25d4d5%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>GH1.25带锁扣，6P，双头同向线束，100mm</t>
+  </si>
+  <si>
+    <t>胸腔DCU与PC主机连接网线</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?_u=eusdja17689&amp;id=725399939920</t>
+  </si>
+  <si>
+    <t>千兆扁平网线，下弯/直头，0.5m</t>
+  </si>
+  <si>
+    <t>L28_OmniPicker_300mm</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -830,43 +824,31 @@
     </r>
   </si>
   <si>
-    <t>GH1.25带锁扣，6P，双头同向线束，100mm</t>
-  </si>
-  <si>
-    <t>胸腔DCU与PC主机连接网线</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://detail.tmall.com/item.htm?_u=eusdja17689&amp;id=725399939920</t>
-    </r>
-  </si>
-  <si>
-    <t>千兆扁平网线，下弯/直头，0.5m</t>
-  </si>
-  <si>
-    <t>L28_OmniPicker_300mm</t>
-  </si>
-  <si>
     <t>GH1.25带锁扣，6P，双头同向线束，300mm</t>
   </si>
   <si>
     <t xml:space="preserve">Xyber-DCU </t>
   </si>
   <si>
+    <t>D435</t>
+  </si>
+  <si>
+    <t>intel realsense</t>
+  </si>
+  <si>
+    <t>胸腔DCU与下肢DCU连接网线</t>
+  </si>
+  <si>
     <t>XT60电源线_单端_300mm</t>
   </si>
   <si>
     <t>XT60电源线_单端_600mm</t>
   </si>
   <si>
-    <t>XT30(2+2)连接线_双直_75mm</t>
+    <t>XT30(2+2)连接线_双直_95mm</t>
+  </si>
+  <si>
+    <t>XT30(2+2)连接线_双直_150mm</t>
   </si>
   <si>
     <t>XT30(2+2)连接线_双直_300mm</t>
@@ -878,6 +860,9 @@
     <t>XT30(2+2)连接线_一弯一直_150mm</t>
   </si>
   <si>
+    <t>XT30(2+2)连接线_一弯一直_200mm</t>
+  </si>
+  <si>
     <t>XT30(2+2)连接线_单直头_400mm</t>
   </si>
   <si>
@@ -888,15 +873,6 @@
   </si>
   <si>
     <t>XT30(2+2)_L28_350mm</t>
-  </si>
-  <si>
-    <t>D435</t>
-  </si>
-  <si>
-    <t>intel realsense</t>
-  </si>
-  <si>
-    <t>胸腔DCU与下肢DCU连接网线</t>
   </si>
 </sst>
 </file>
@@ -910,7 +886,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -954,11 +930,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.75"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1113,14 +1103,14 @@
     </font>
     <font>
       <u/>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1326,7 +1316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1384,6 +1374,36 @@
         <color rgb="FF1F2329"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1487,28 +1507,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1517,122 +1528,131 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1690,23 +1710,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1714,17 +1743,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2047,23 +2079,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="25.2" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="25.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="6" max="6" width="23" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="17.4907407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -2224,11 +2257,11 @@
     </row>
     <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -2236,19 +2269,21 @@
       <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="3"/>
-      <c r="B9" s="10" t="s">
-        <v>26</v>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -2256,18 +2291,18 @@
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -2282,12 +2317,14 @@
         <v>12</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -2302,12 +2339,14 @@
         <v>12</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -2322,12 +2361,14 @@
         <v>12</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
+      <c r="B13" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -2342,12 +2383,14 @@
         <v>12</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
@@ -2362,12 +2405,14 @@
         <v>12</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -2382,12 +2427,14 @@
         <v>12</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -2403,13 +2450,13 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="3"/>
-      <c r="B17" s="10" t="s">
-        <v>38</v>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -2424,15 +2471,17 @@
         <v>12</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -2440,84 +2489,86 @@
       <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>12</v>
+      <c r="F18" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="G20" s="12"/>
       <c r="H20" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>44</v>
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
@@ -2532,18 +2583,20 @@
         <v>12</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
@@ -2551,13 +2604,15 @@
       <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
@@ -2571,13 +2626,15 @@
       <c r="F24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
@@ -2591,7 +2648,7 @@
       <c r="F25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="8" t="s">
         <v>13</v>
       </c>
@@ -2599,55 +2656,49 @@
     <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>11</v>
@@ -2659,13 +2710,13 @@
     <row r="29" customHeight="1" spans="1:8">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>11</v>
@@ -2677,13 +2728,13 @@
     <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>11</v>
@@ -2694,102 +2745,110 @@
     </row>
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>55</v>
+      <c r="B31" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="3">
-        <v>60</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
-        <v>56</v>
+      <c r="B32" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="3">
-        <v>12</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="D32" s="5">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="3"/>
       <c r="B33" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F33" s="6"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="3"/>
       <c r="B34" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D34" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D35" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
@@ -2811,15 +2870,15 @@
     <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -2833,7 +2892,7 @@
     <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
@@ -2841,7 +2900,7 @@
       <c r="D38" s="5">
         <v>2</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -2855,29 +2914,29 @@
     <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D39" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="7"/>
       <c r="H39" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="3"/>
       <c r="B40" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>15</v>
@@ -2899,7 +2958,7 @@
     <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>10</v>
@@ -2921,10 +2980,10 @@
     <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
@@ -2933,23 +2992,23 @@
         <v>11</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="3"/>
       <c r="B43" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>11</v>
@@ -2965,7 +3024,7 @@
     <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="3"/>
       <c r="B44" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>10</v>
@@ -2973,7 +3032,7 @@
       <c r="D44" s="5">
         <v>2</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -2987,15 +3046,15 @@
     <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="3"/>
       <c r="B45" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -3009,10 +3068,10 @@
     <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="3"/>
       <c r="B46" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D46" s="5">
         <v>2</v>
@@ -3021,20 +3080,20 @@
         <v>11</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="3"/>
       <c r="B47" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
@@ -3043,20 +3102,20 @@
         <v>11</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="3"/>
       <c r="B48" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D48" s="5">
         <v>2</v>
@@ -3065,39 +3124,35 @@
         <v>11</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G48" s="7"/>
       <c r="H48" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="3"/>
-      <c r="B49" s="10" t="s">
-        <v>73</v>
+      <c r="B49" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D49" s="5">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F49" s="6"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="3"/>
       <c r="B50" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>10</v>
@@ -3113,39 +3168,43 @@
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="3"/>
-      <c r="B51" s="4" t="s">
-        <v>75</v>
+      <c r="B51" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D51" s="5">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="9"/>
+      <c r="F51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="13">
         <v>2</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -3153,21 +3212,21 @@
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="3"/>
       <c r="B53" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="13">
         <v>2</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -3175,13 +3234,13 @@
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>10</v>
@@ -3202,8 +3261,8 @@
     </row>
     <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="3"/>
-      <c r="B55" s="10" t="s">
-        <v>79</v>
+      <c r="B55" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>10</v>
@@ -3219,21 +3278,21 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="3"/>
       <c r="B56" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="5">
         <v>2</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -3247,55 +3306,49 @@
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="13">
-        <v>2</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="3"/>
-      <c r="B58" s="10" t="s">
-        <v>82</v>
+      <c r="B58" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D58" s="5">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>11</v>
@@ -3307,13 +3360,13 @@
     <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="5">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>11</v>
@@ -3325,10 +3378,10 @@
     <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="5">
         <v>6</v>
@@ -3343,13 +3396,13 @@
     <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>11</v>
@@ -3361,13 +3414,13 @@
     <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" s="5">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>11</v>
@@ -3379,13 +3432,13 @@
     <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="5">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>11</v>
@@ -3397,43 +3450,51 @@
     <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D65" s="5">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D66" s="5">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G66" s="4"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>15</v>
@@ -3455,10 +3516,10 @@
     <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D68" s="5">
         <v>6</v>
@@ -3466,46 +3527,38 @@
       <c r="E68" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F68" s="6"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F69" s="6"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>11</v>
@@ -3517,13 +3570,13 @@
     <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>11</v>
@@ -3534,14 +3587,14 @@
     </row>
     <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="3"/>
-      <c r="B72" s="4" t="s">
-        <v>96</v>
+      <c r="B72" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>11</v>
@@ -3553,65 +3606,69 @@
     <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D73" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="3"/>
-      <c r="B74" s="10" t="s">
-        <v>98</v>
+      <c r="B74" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D74" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="75" customHeight="1" spans="1:8">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D75" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F75" s="6"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>15</v>
@@ -3623,7 +3680,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="8" t="s">
@@ -3633,10 +3690,10 @@
     <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="3"/>
       <c r="B77" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D77" s="5">
         <v>4</v>
@@ -3651,35 +3708,31 @@
     <row r="78" customHeight="1" spans="1:8">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D78" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" customHeight="1" spans="1:8">
       <c r="A79" s="3"/>
       <c r="B79" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>11</v>
@@ -3694,32 +3747,36 @@
     </row>
     <row r="80" customHeight="1" spans="1:8">
       <c r="A80" s="3"/>
-      <c r="B80" s="4" t="s">
-        <v>105</v>
+      <c r="B80" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D80" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="81" customHeight="1" spans="1:8">
       <c r="A81" s="3"/>
-      <c r="B81" s="4" t="s">
-        <v>106</v>
+      <c r="B81" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D81" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>11</v>
@@ -3731,7 +3788,7 @@
     <row r="82" customHeight="1" spans="1:8">
       <c r="A82" s="3"/>
       <c r="B82" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>15</v>
@@ -3753,35 +3810,35 @@
     <row r="83" customHeight="1" spans="1:8">
       <c r="A83" s="3"/>
       <c r="B83" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D83" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G83" s="7"/>
       <c r="H83" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:8">
       <c r="A84" s="3"/>
-      <c r="B84" s="10" t="s">
-        <v>109</v>
+      <c r="B84" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" s="5">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>11</v>
@@ -3792,58 +3849,50 @@
     </row>
     <row r="85" customHeight="1" spans="1:8">
       <c r="A85" s="3"/>
-      <c r="B85" s="10" t="s">
-        <v>110</v>
+      <c r="B85" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D85" s="5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" customHeight="1" spans="1:8">
       <c r="A86" s="3"/>
-      <c r="B86" s="10" t="s">
-        <v>111</v>
+      <c r="B86" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D86" s="5">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F86" s="6"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" customHeight="1" spans="1:8">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" s="5">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>11</v>
@@ -3855,13 +3904,13 @@
     <row r="88" customHeight="1" spans="1:8">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>11</v>
@@ -3873,67 +3922,79 @@
     <row r="89" customHeight="1" spans="1:8">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D89" s="5">
-        <v>236</v>
+        <v>8</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
+      <c r="F89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="90" customHeight="1" spans="1:8">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D90" s="5">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="8"/>
+      <c r="F90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="91" customHeight="1" spans="1:8">
       <c r="A91" s="3"/>
       <c r="B91" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D91" s="5">
+        <v>13</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="92" customHeight="1" spans="1:8">
       <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>11</v>
@@ -3949,13 +4010,13 @@
     <row r="93" customHeight="1" spans="1:8">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>11</v>
@@ -3971,13 +4032,13 @@
     <row r="94" customHeight="1" spans="1:8">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>11</v>
@@ -3993,7 +4054,7 @@
     <row r="95" customHeight="1" spans="1:8">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>15</v>
@@ -4015,13 +4076,13 @@
     <row r="96" customHeight="1" spans="1:8">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>11</v>
@@ -4037,13 +4098,13 @@
     <row r="97" customHeight="1" spans="1:8">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>11</v>
@@ -4059,19 +4120,19 @@
     <row r="98" customHeight="1" spans="1:8">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="8" t="s">
@@ -4081,13 +4142,13 @@
     <row r="99" customHeight="1" spans="1:8">
       <c r="A99" s="3"/>
       <c r="B99" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>11</v>
@@ -4103,13 +4164,13 @@
     <row r="100" customHeight="1" spans="1:8">
       <c r="A100" s="3"/>
       <c r="B100" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>11</v>
@@ -4125,19 +4186,19 @@
     <row r="101" customHeight="1" spans="1:8">
       <c r="A101" s="3"/>
       <c r="B101" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="8" t="s">
@@ -4146,30 +4207,26 @@
     </row>
     <row r="102" customHeight="1" spans="1:8">
       <c r="A102" s="3"/>
-      <c r="B102" s="4" t="s">
-        <v>127</v>
+      <c r="B102" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D102" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F102" s="6"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" customHeight="1" spans="1:8">
       <c r="A103" s="3"/>
       <c r="B103" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>15</v>
@@ -4181,9 +4238,9 @@
         <v>11</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="G103" s="7"/>
       <c r="H103" s="8" t="s">
         <v>17</v>
       </c>
@@ -4191,83 +4248,83 @@
     <row r="104" customHeight="1" spans="1:8">
       <c r="A104" s="3"/>
       <c r="B104" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="G104" s="7"/>
       <c r="H104" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:8">
       <c r="A105" s="3"/>
-      <c r="B105" s="10" t="s">
-        <v>130</v>
+      <c r="B105" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D105" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="8"/>
+      <c r="F105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="106" customHeight="1" spans="1:8">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D106" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="F106" s="6"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" customHeight="1" spans="1:8">
       <c r="A107" s="3"/>
       <c r="B107" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G107" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="G107" s="4"/>
       <c r="H107" s="8" t="s">
         <v>17</v>
       </c>
@@ -4275,13 +4332,13 @@
     <row r="108" customHeight="1" spans="1:8">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>11</v>
@@ -4297,31 +4354,35 @@
     <row r="109" customHeight="1" spans="1:8">
       <c r="A109" s="3"/>
       <c r="B109" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D109" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="6"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="8"/>
+      <c r="F109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="110" customHeight="1" spans="1:8">
       <c r="A110" s="3"/>
       <c r="B110" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>11</v>
@@ -4337,76 +4398,64 @@
     <row r="111" customHeight="1" spans="1:8">
       <c r="A111" s="3"/>
       <c r="B111" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D111" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" customHeight="1" spans="1:8">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D112" s="5">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" customHeight="1" spans="1:8">
       <c r="A113" s="3"/>
       <c r="B113" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D113" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F113" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F113" s="6"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" customHeight="1" spans="1:8">
       <c r="A114" s="3"/>
       <c r="B114" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D114" s="5">
         <v>12</v>
@@ -4421,13 +4470,13 @@
     <row r="115" customHeight="1" spans="1:8">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D115" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>11</v>
@@ -4439,13 +4488,13 @@
     <row r="116" customHeight="1" spans="1:8">
       <c r="A116" s="3"/>
       <c r="B116" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D116" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>11</v>
@@ -4457,13 +4506,13 @@
     <row r="117" customHeight="1" spans="1:8">
       <c r="A117" s="3"/>
       <c r="B117" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>11</v>
@@ -4475,13 +4524,13 @@
     <row r="118" customHeight="1" spans="1:8">
       <c r="A118" s="3"/>
       <c r="B118" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D118" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>11</v>
@@ -4493,13 +4542,13 @@
     <row r="119" customHeight="1" spans="1:8">
       <c r="A119" s="3"/>
       <c r="B119" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>11</v>
@@ -4511,13 +4560,13 @@
     <row r="120" customHeight="1" spans="1:8">
       <c r="A120" s="3"/>
       <c r="B120" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D120" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>11</v>
@@ -4528,14 +4577,14 @@
     </row>
     <row r="121" customHeight="1" spans="1:8">
       <c r="A121" s="3"/>
-      <c r="B121" s="4" t="s">
-        <v>147</v>
+      <c r="B121" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D121" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>11</v>
@@ -4547,13 +4596,13 @@
     <row r="122" customHeight="1" spans="1:8">
       <c r="A122" s="3"/>
       <c r="B122" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D122" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>11</v>
@@ -4565,13 +4614,13 @@
     <row r="123" customHeight="1" spans="1:8">
       <c r="A123" s="3"/>
       <c r="B123" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>11</v>
@@ -4582,11 +4631,11 @@
     </row>
     <row r="124" customHeight="1" spans="1:8">
       <c r="A124" s="3"/>
-      <c r="B124" s="10" t="s">
-        <v>150</v>
+      <c r="B124" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D124" s="5">
         <v>1</v>
@@ -4594,17 +4643,21 @@
       <c r="E124" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="6"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="8"/>
+      <c r="F124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="125" customHeight="1" spans="1:8">
       <c r="A125" s="3"/>
       <c r="B125" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D125" s="5">
         <v>4</v>
@@ -4612,134 +4665,142 @@
       <c r="E125" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="6"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="8"/>
+      <c r="F125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="126" customHeight="1" spans="1:8">
       <c r="A126" s="3"/>
       <c r="B126" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D126" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="8"/>
+      <c r="F126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="127" customHeight="1" spans="1:8">
       <c r="A127" s="3"/>
-      <c r="B127" s="4" t="s">
-        <v>153</v>
+      <c r="B127" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D127" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="4"/>
-      <c r="H127" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F127" s="6"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" customHeight="1" spans="1:8">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D128" s="5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F128" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="4"/>
-      <c r="H128" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F128" s="6"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" customHeight="1" spans="1:8">
       <c r="A129" s="3"/>
       <c r="B129" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D129" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G129" s="7"/>
       <c r="H129" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:8">
       <c r="A130" s="3"/>
-      <c r="B130" s="10" t="s">
-        <v>156</v>
+      <c r="B130" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D130" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="6"/>
+      <c r="F130" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G130" s="7"/>
-      <c r="H130" s="8"/>
+      <c r="H130" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="131" customHeight="1" spans="1:8">
       <c r="A131" s="3"/>
       <c r="B131" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D131" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="6"/>
+      <c r="F131" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G131" s="7"/>
-      <c r="H131" s="8"/>
+      <c r="H131" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="132" customHeight="1" spans="1:8">
       <c r="A132" s="3"/>
       <c r="B132" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>10</v>
@@ -4761,7 +4822,7 @@
     <row r="133" customHeight="1" spans="1:8">
       <c r="A133" s="3"/>
       <c r="B133" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>10</v>
@@ -4783,13 +4844,13 @@
     <row r="134" customHeight="1" spans="1:8">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D134" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>11</v>
@@ -4805,7 +4866,7 @@
     <row r="135" customHeight="1" spans="1:8">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>10</v>
@@ -4827,35 +4888,35 @@
     <row r="136" customHeight="1" spans="1:8">
       <c r="A136" s="3"/>
       <c r="B136" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D136" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="G136" s="4"/>
       <c r="H136" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:8">
       <c r="A137" s="3"/>
       <c r="B137" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D137" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>11</v>
@@ -4871,7 +4932,7 @@
     <row r="138" customHeight="1" spans="1:8">
       <c r="A138" s="3"/>
       <c r="B138" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>10</v>
@@ -4893,7 +4954,7 @@
     <row r="139" customHeight="1" spans="1:8">
       <c r="A139" s="3"/>
       <c r="B139" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>10</v>
@@ -4915,37 +4976,39 @@
     <row r="140" customHeight="1" spans="1:8">
       <c r="A140" s="3"/>
       <c r="B140" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="5">
-        <v>2</v>
+      <c r="D140" s="6">
+        <v>1</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="G140" s="4"/>
       <c r="H140" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:8">
       <c r="A141" s="3"/>
       <c r="B141" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D141" s="5">
-        <v>2</v>
-      </c>
-      <c r="E141" s="6"/>
+      <c r="D141" s="6">
+        <v>1</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="F141" s="6" t="s">
         <v>12</v>
       </c>
@@ -4957,12 +5020,12 @@
     <row r="142" customHeight="1" spans="1:8">
       <c r="A142" s="3"/>
       <c r="B142" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="6">
         <v>1</v>
       </c>
       <c r="E142" s="6" t="s">
@@ -4979,173 +5042,173 @@
     <row r="143" customHeight="1" spans="1:8">
       <c r="A143" s="3"/>
       <c r="B143" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D143" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="8" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:8">
       <c r="A144" s="3"/>
       <c r="B144" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D144" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="7"/>
-      <c r="H144" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" customHeight="1" spans="1:8">
       <c r="A145" s="3"/>
       <c r="B145" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D145" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" s="4"/>
-      <c r="H145" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="F145" s="15"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" customHeight="1" spans="1:8">
       <c r="A146" s="3"/>
       <c r="B146" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D146" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="F146" s="15"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" customHeight="1" spans="1:8">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D147" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F147" s="15"/>
-      <c r="G147" s="16"/>
+      <c r="G147" s="4"/>
       <c r="H147" s="17"/>
     </row>
     <row r="148" customHeight="1" spans="1:8">
       <c r="A148" s="3"/>
       <c r="B148" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D148" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F148" s="15"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="17"/>
+      <c r="F148" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="149" customHeight="1" spans="1:8">
       <c r="A149" s="3"/>
       <c r="B149" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D149" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="15"/>
+      <c r="F149" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G149" s="4"/>
-      <c r="H149" s="17"/>
+      <c r="H149" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="150" customHeight="1" spans="1:8">
       <c r="A150" s="3"/>
       <c r="B150" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D150" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F150" s="15"/>
+      <c r="F150" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G150" s="4"/>
-      <c r="H150" s="17"/>
+      <c r="H150" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="151" customHeight="1" spans="1:8">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>11</v>
@@ -5160,14 +5223,14 @@
     </row>
     <row r="152" customHeight="1" spans="1:8">
       <c r="A152" s="3"/>
-      <c r="B152" s="4" t="s">
-        <v>179</v>
+      <c r="B152" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D152" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>11</v>
@@ -5183,7 +5246,7 @@
     <row r="153" customHeight="1" spans="1:8">
       <c r="A153" s="3"/>
       <c r="B153" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>15</v>
@@ -5205,13 +5268,13 @@
     <row r="154" customHeight="1" spans="1:8">
       <c r="A154" s="3"/>
       <c r="B154" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>11</v>
@@ -5226,69 +5289,33 @@
     </row>
     <row r="155" customHeight="1" spans="1:8">
       <c r="A155" s="3"/>
-      <c r="B155" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="6">
-        <v>1</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" s="4"/>
-      <c r="H155" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B155" s="15"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="17"/>
     </row>
     <row r="156" customHeight="1" spans="1:8">
       <c r="A156" s="3"/>
-      <c r="B156" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="6">
-        <v>1</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" s="4"/>
-      <c r="H156" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B156" s="15"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="17"/>
     </row>
     <row r="157" customHeight="1" spans="1:8">
       <c r="A157" s="3"/>
-      <c r="B157" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="6">
-        <v>2</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" s="4"/>
-      <c r="H157" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B157" s="15"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="17"/>
     </row>
     <row r="158" customHeight="1" spans="1:8">
       <c r="A158" s="3"/>
@@ -5381,64 +5408,96 @@
       <c r="H166" s="17"/>
     </row>
     <row r="167" customHeight="1" spans="1:8">
-      <c r="A167" s="3"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="17"/>
+      <c r="A167" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D167" s="6">
+        <v>1</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="6"/>
+      <c r="G167" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H167" s="8"/>
     </row>
     <row r="168" customHeight="1" spans="1:8">
-      <c r="A168" s="3"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="17"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" s="6">
+        <v>1</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="6"/>
+      <c r="G168" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H168" s="8"/>
     </row>
     <row r="169" customHeight="1" spans="1:8">
-      <c r="A169" s="3"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="16"/>
-      <c r="H169" s="17"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D169" s="6">
+        <v>1</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="6"/>
+      <c r="G169" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" customHeight="1" spans="1:8">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="20"/>
+      <c r="B170" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="D170" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H170" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="171" customHeight="1" spans="1:8">
-      <c r="A171" s="5"/>
+      <c r="A171" s="20"/>
       <c r="B171" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D171" s="6">
         <v>1</v>
@@ -5447,60 +5506,58 @@
         <v>11</v>
       </c>
       <c r="F171" s="6"/>
-      <c r="G171" s="7" t="s">
-        <v>190</v>
+      <c r="G171" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="H171" s="8"/>
     </row>
     <row r="172" customHeight="1" spans="1:8">
-      <c r="A172" s="5"/>
+      <c r="A172" s="20"/>
       <c r="B172" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D172" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H172" s="8"/>
     </row>
     <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="5"/>
-      <c r="B173" s="4" t="s">
-        <v>193</v>
+      <c r="A173" s="20"/>
+      <c r="B173" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D173" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F173" s="6"/>
-      <c r="G173" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H173" s="11" t="s">
-        <v>195</v>
-      </c>
+      <c r="F173" s="9"/>
+      <c r="G173" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H173" s="9"/>
     </row>
     <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="5"/>
-      <c r="B174" s="4" t="s">
-        <v>196</v>
+      <c r="A174" s="20"/>
+      <c r="B174" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D174" s="6">
         <v>1</v>
@@ -5508,39 +5565,41 @@
       <c r="E174" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F174" s="6"/>
-      <c r="G174" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H174" s="8"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="5"/>
-      <c r="B175" s="4" t="s">
-        <v>198</v>
+      <c r="A175" s="20"/>
+      <c r="B175" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D175" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F175" s="6"/>
-      <c r="G175" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H175" s="8"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H175" s="9"/>
     </row>
     <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="5"/>
+      <c r="A176" s="20"/>
       <c r="B176" s="9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D176" s="6">
         <v>1</v>
@@ -5550,121 +5609,125 @@
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H176" s="9"/>
     </row>
     <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="5"/>
+      <c r="A177" s="20"/>
       <c r="B177" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D177" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H177" s="9" t="s">
-        <v>204</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="H177" s="9"/>
     </row>
     <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="5"/>
-      <c r="B178" s="9" t="s">
-        <v>205</v>
+      <c r="A178" s="20"/>
+      <c r="B178" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D178" s="6">
+        <v>185</v>
+      </c>
+      <c r="D178" s="23">
         <v>1</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F178" s="9"/>
-      <c r="G178" s="4" t="s">
-        <v>206</v>
+      <c r="G178" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="H178" s="9"/>
     </row>
     <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="5"/>
-      <c r="B179" s="9" t="s">
-        <v>207</v>
+      <c r="A179" s="20"/>
+      <c r="B179" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D179" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H179" s="9"/>
+        <v>212</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="5"/>
-      <c r="B180" s="9" t="s">
-        <v>209</v>
+      <c r="A180" s="20"/>
+      <c r="B180" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D180" s="6">
+        <v>185</v>
+      </c>
+      <c r="D180" s="23">
         <v>2</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="9"/>
-      <c r="G180" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H180" s="9"/>
+      <c r="G180" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="5"/>
-      <c r="B181" s="19" t="s">
-        <v>211</v>
+      <c r="A181" s="20"/>
+      <c r="B181" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D181" s="20">
+        <v>185</v>
+      </c>
+      <c r="D181" s="23">
         <v>1</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F181" s="9"/>
-      <c r="G181" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H181" s="9"/>
+      <c r="G181" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="5"/>
-      <c r="B182" s="21" t="s">
-        <v>213</v>
+      <c r="A182" s="20"/>
+      <c r="B182" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D182" s="6">
+        <v>19</v>
+      </c>
+      <c r="D182" s="23">
         <v>2</v>
       </c>
       <c r="E182" s="6" t="s">
@@ -5672,105 +5735,95 @@
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="1:8">
-      <c r="A183" s="5"/>
-      <c r="B183" s="19" t="s">
-        <v>216</v>
+      <c r="A183" s="20"/>
+      <c r="B183" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D183" s="20">
+        <v>19</v>
+      </c>
+      <c r="D183" s="5">
         <v>2</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F183" s="9"/>
-      <c r="G183" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H183" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="F183" s="6"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="8"/>
     </row>
     <row r="184" customHeight="1" spans="1:8">
-      <c r="A184" s="5"/>
-      <c r="B184" s="19" t="s">
-        <v>219</v>
+      <c r="A184" s="20"/>
+      <c r="B184" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D184" s="20">
+        <v>185</v>
+      </c>
+      <c r="D184" s="23">
         <v>1</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F184" s="9"/>
-      <c r="G184" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="G184" s="4"/>
       <c r="H184" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="5"/>
-      <c r="B185" s="19" t="s">
-        <v>222</v>
+      <c r="A185" s="20"/>
+      <c r="B185" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="20">
-        <v>2</v>
+      <c r="D185" s="23">
+        <v>1</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F185" s="9"/>
-      <c r="G185" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H185" s="9" t="s">
-        <v>223</v>
-      </c>
+      <c r="G185" s="4"/>
+      <c r="H185" s="9"/>
     </row>
     <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="5"/>
-      <c r="B186" s="4" t="s">
-        <v>224</v>
+      <c r="A186" s="20"/>
+      <c r="B186" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D186" s="5">
-        <v>2</v>
+      <c r="D186" s="23">
+        <v>1</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F186" s="6"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="8"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="9"/>
     </row>
     <row r="187" customHeight="1" spans="1:8">
-      <c r="A187" s="5"/>
-      <c r="B187" s="19" t="s">
-        <v>225</v>
+      <c r="A187" s="20"/>
+      <c r="B187" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D187" s="20">
+      <c r="D187" s="23">
         <v>1</v>
       </c>
       <c r="E187" s="6" t="s">
@@ -5780,16 +5833,16 @@
       <c r="G187" s="4"/>
       <c r="H187" s="9"/>
     </row>
-    <row r="188" customHeight="1" spans="1:8">
-      <c r="A188" s="5"/>
-      <c r="B188" s="19" t="s">
-        <v>226</v>
+    <row r="188" customHeight="1" spans="1:9">
+      <c r="A188" s="20"/>
+      <c r="B188" s="22" t="s">
+        <v>229</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D188" s="20">
-        <v>1</v>
+      <c r="D188" s="23">
+        <v>3</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>11</v>
@@ -5797,17 +5850,18 @@
       <c r="F188" s="9"/>
       <c r="G188" s="4"/>
       <c r="H188" s="9"/>
-    </row>
-    <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="5"/>
-      <c r="B189" s="19" t="s">
-        <v>227</v>
+      <c r="I188" s="30"/>
+    </row>
+    <row r="189" customHeight="1" spans="1:9">
+      <c r="A189" s="20"/>
+      <c r="B189" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D189" s="20">
-        <v>3</v>
+      <c r="D189" s="23">
+        <v>1</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>11</v>
@@ -5815,16 +5869,17 @@
       <c r="F189" s="9"/>
       <c r="G189" s="4"/>
       <c r="H189" s="9"/>
-    </row>
-    <row r="190" customHeight="1" spans="1:8">
-      <c r="A190" s="5"/>
-      <c r="B190" s="19" t="s">
-        <v>228</v>
+      <c r="I189" s="30"/>
+    </row>
+    <row r="190" customHeight="1" spans="1:9">
+      <c r="A190" s="20"/>
+      <c r="B190" s="22" t="s">
+        <v>231</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D190" s="20">
+      <c r="D190" s="23">
         <v>4</v>
       </c>
       <c r="E190" s="6" t="s">
@@ -5833,35 +5888,37 @@
       <c r="F190" s="9"/>
       <c r="G190" s="4"/>
       <c r="H190" s="9"/>
-    </row>
-    <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="5"/>
-      <c r="B191" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C191" s="3" t="s">
+      <c r="I190" s="30"/>
+    </row>
+    <row r="191" customHeight="1" spans="1:9">
+      <c r="A191" s="20"/>
+      <c r="B191" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C191" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D191" s="20">
-        <v>6</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="9"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="9"/>
+      <c r="D191" s="27">
+        <v>2</v>
+      </c>
+      <c r="E191" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="28"/>
+      <c r="G191" s="29"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="30"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="5"/>
-      <c r="B192" s="19" t="s">
-        <v>230</v>
+      <c r="A192" s="20"/>
+      <c r="B192" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D192" s="20">
-        <v>6</v>
+      <c r="D192" s="23">
+        <v>5</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>11</v>
@@ -5871,15 +5928,15 @@
       <c r="H192" s="9"/>
     </row>
     <row r="193" customHeight="1" spans="1:8">
-      <c r="A193" s="5"/>
-      <c r="B193" s="19" t="s">
-        <v>231</v>
+      <c r="A193" s="20"/>
+      <c r="B193" s="22" t="s">
+        <v>234</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D193" s="20">
-        <v>2</v>
+      <c r="D193" s="23">
+        <v>4</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>11</v>
@@ -5889,33 +5946,33 @@
       <c r="H193" s="9"/>
     </row>
     <row r="194" customHeight="1" spans="1:8">
-      <c r="A194" s="5"/>
+      <c r="A194" s="20"/>
       <c r="B194" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C194" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D194" s="24">
-        <v>10</v>
-      </c>
-      <c r="E194" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="25"/>
-      <c r="G194" s="26"/>
-      <c r="H194" s="25"/>
+      <c r="D194" s="23">
+        <v>4</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="9"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="9"/>
     </row>
     <row r="195" customHeight="1" spans="1:8">
-      <c r="A195" s="5"/>
-      <c r="B195" s="19" t="s">
-        <v>233</v>
+      <c r="A195" s="20"/>
+      <c r="B195" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="20">
-        <v>6</v>
+      <c r="D195" s="23">
+        <v>8</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>11</v>
@@ -5925,544 +5982,511 @@
       <c r="H195" s="9"/>
     </row>
     <row r="196" customHeight="1" spans="1:8">
-      <c r="A196" s="5"/>
-      <c r="B196" s="19" t="s">
-        <v>234</v>
+      <c r="A196" s="20"/>
+      <c r="B196" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D196" s="20">
-        <v>2</v>
+      <c r="D196" s="23">
+        <v>6</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="9"/>
+      <c r="H196" s="22"/>
     </row>
     <row r="197" customHeight="1" spans="1:8">
-      <c r="A197" s="5"/>
-      <c r="B197" s="19" t="s">
-        <v>235</v>
+      <c r="A197" s="20"/>
+      <c r="B197" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D197" s="20">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D197" s="23">
+        <v>2</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="198" customHeight="1" spans="1:8">
-      <c r="A198" s="5"/>
-      <c r="B198" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198" s="20">
-        <v>1</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="9"/>
-      <c r="G198" s="4"/>
-      <c r="H198" s="9"/>
+      <c r="H197" s="22"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:7">
+      <c r="A198" s="31"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31"/>
+      <c r="G198" s="32"/>
     </row>
     <row r="199" customHeight="1" spans="1:7">
-      <c r="A199" s="27"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="29"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="G199" s="30"/>
+      <c r="A199" s="31"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="34"/>
+      <c r="E199" s="31"/>
+      <c r="G199" s="32"/>
     </row>
     <row r="200" customHeight="1" spans="1:7">
-      <c r="A200" s="27"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
-      <c r="G200" s="30"/>
+      <c r="A200" s="31"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="34"/>
+      <c r="E200" s="31"/>
+      <c r="G200" s="32"/>
     </row>
     <row r="201" customHeight="1" spans="1:7">
-      <c r="A201" s="27"/>
-      <c r="B201" s="30"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="G201" s="30"/>
-    </row>
-    <row r="202" customHeight="1" spans="1:7">
-      <c r="A202" s="27"/>
-      <c r="B202" s="30"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="28"/>
-      <c r="E202" s="27"/>
-      <c r="G202" s="30"/>
-    </row>
-    <row r="203" customHeight="1" spans="1:7">
-      <c r="A203" s="27"/>
-      <c r="B203" s="30"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="28"/>
-      <c r="E203" s="27"/>
-      <c r="G203" s="30"/>
-    </row>
-    <row r="204" customHeight="1" spans="1:7">
-      <c r="A204" s="27"/>
-      <c r="B204" s="30"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="28"/>
-      <c r="E204" s="27"/>
-      <c r="G204" s="30"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="31"/>
+      <c r="G201" s="32"/>
+    </row>
+    <row r="202" customHeight="1" spans="7:7">
+      <c r="G202" s="32"/>
+    </row>
+    <row r="203" customHeight="1" spans="7:7">
+      <c r="G203" s="32"/>
+    </row>
+    <row r="204" customHeight="1" spans="7:7">
+      <c r="G204" s="32"/>
     </row>
     <row r="205" customHeight="1" spans="7:7">
-      <c r="G205" s="30"/>
+      <c r="G205" s="32"/>
     </row>
     <row r="206" customHeight="1" spans="7:7">
-      <c r="G206" s="30"/>
+      <c r="G206" s="32"/>
     </row>
     <row r="207" customHeight="1" spans="7:7">
-      <c r="G207" s="30"/>
+      <c r="G207" s="32"/>
     </row>
     <row r="208" customHeight="1" spans="7:7">
-      <c r="G208" s="30"/>
+      <c r="G208" s="32"/>
     </row>
     <row r="209" customHeight="1" spans="7:7">
-      <c r="G209" s="30"/>
+      <c r="G209" s="32"/>
     </row>
     <row r="210" customHeight="1" spans="7:7">
-      <c r="G210" s="30"/>
+      <c r="G210" s="32"/>
     </row>
     <row r="211" customHeight="1" spans="7:7">
-      <c r="G211" s="30"/>
+      <c r="G211" s="32"/>
     </row>
     <row r="212" customHeight="1" spans="7:7">
-      <c r="G212" s="30"/>
+      <c r="G212" s="32"/>
     </row>
     <row r="213" customHeight="1" spans="7:7">
-      <c r="G213" s="30"/>
+      <c r="G213" s="32"/>
     </row>
     <row r="214" customHeight="1" spans="7:7">
-      <c r="G214" s="30"/>
+      <c r="G214" s="32"/>
     </row>
     <row r="215" customHeight="1" spans="7:7">
-      <c r="G215" s="30"/>
+      <c r="G215" s="32"/>
     </row>
     <row r="216" customHeight="1" spans="7:7">
-      <c r="G216" s="30"/>
+      <c r="G216" s="32"/>
     </row>
     <row r="217" customHeight="1" spans="7:7">
-      <c r="G217" s="30"/>
+      <c r="G217" s="32"/>
     </row>
     <row r="218" customHeight="1" spans="7:7">
-      <c r="G218" s="30"/>
+      <c r="G218" s="32"/>
     </row>
     <row r="219" customHeight="1" spans="7:7">
-      <c r="G219" s="30"/>
+      <c r="G219" s="32"/>
     </row>
     <row r="220" customHeight="1" spans="7:7">
-      <c r="G220" s="30"/>
+      <c r="G220" s="32"/>
     </row>
     <row r="221" customHeight="1" spans="7:7">
-      <c r="G221" s="30"/>
+      <c r="G221" s="32"/>
     </row>
     <row r="222" customHeight="1" spans="7:7">
-      <c r="G222" s="30"/>
+      <c r="G222" s="32"/>
     </row>
     <row r="223" customHeight="1" spans="7:7">
-      <c r="G223" s="30"/>
+      <c r="G223" s="32"/>
     </row>
     <row r="224" customHeight="1" spans="7:7">
-      <c r="G224" s="30"/>
+      <c r="G224" s="32"/>
     </row>
     <row r="225" customHeight="1" spans="7:7">
-      <c r="G225" s="30"/>
+      <c r="G225" s="32"/>
     </row>
     <row r="226" customHeight="1" spans="7:7">
-      <c r="G226" s="30"/>
+      <c r="G226" s="32"/>
     </row>
     <row r="227" customHeight="1" spans="7:7">
-      <c r="G227" s="30"/>
+      <c r="G227" s="32"/>
     </row>
     <row r="228" customHeight="1" spans="7:7">
-      <c r="G228" s="30"/>
+      <c r="G228" s="32"/>
     </row>
     <row r="229" customHeight="1" spans="7:7">
-      <c r="G229" s="30"/>
+      <c r="G229" s="32"/>
     </row>
     <row r="230" customHeight="1" spans="7:7">
-      <c r="G230" s="30"/>
+      <c r="G230" s="32"/>
     </row>
     <row r="231" customHeight="1" spans="7:7">
-      <c r="G231" s="30"/>
+      <c r="G231" s="32"/>
     </row>
     <row r="232" customHeight="1" spans="7:7">
-      <c r="G232" s="30"/>
+      <c r="G232" s="32"/>
     </row>
     <row r="233" customHeight="1" spans="7:7">
-      <c r="G233" s="30"/>
+      <c r="G233" s="32"/>
     </row>
     <row r="234" customHeight="1" spans="7:7">
-      <c r="G234" s="30"/>
+      <c r="G234" s="32"/>
     </row>
     <row r="235" customHeight="1" spans="7:7">
-      <c r="G235" s="30"/>
+      <c r="G235" s="32"/>
     </row>
     <row r="236" customHeight="1" spans="7:7">
-      <c r="G236" s="30"/>
+      <c r="G236" s="32"/>
     </row>
     <row r="237" customHeight="1" spans="7:7">
-      <c r="G237" s="30"/>
+      <c r="G237" s="32"/>
     </row>
     <row r="238" customHeight="1" spans="7:7">
-      <c r="G238" s="30"/>
+      <c r="G238" s="32"/>
     </row>
     <row r="239" customHeight="1" spans="7:7">
-      <c r="G239" s="30"/>
+      <c r="G239" s="32"/>
     </row>
     <row r="240" customHeight="1" spans="7:7">
-      <c r="G240" s="30"/>
+      <c r="G240" s="32"/>
     </row>
     <row r="241" customHeight="1" spans="7:7">
-      <c r="G241" s="30"/>
+      <c r="G241" s="32"/>
     </row>
     <row r="242" customHeight="1" spans="7:7">
-      <c r="G242" s="30"/>
+      <c r="G242" s="32"/>
     </row>
     <row r="243" customHeight="1" spans="7:7">
-      <c r="G243" s="30"/>
+      <c r="G243" s="32"/>
     </row>
     <row r="244" customHeight="1" spans="7:7">
-      <c r="G244" s="30"/>
+      <c r="G244" s="32"/>
     </row>
     <row r="245" customHeight="1" spans="7:7">
-      <c r="G245" s="30"/>
+      <c r="G245" s="32"/>
     </row>
     <row r="246" customHeight="1" spans="7:7">
-      <c r="G246" s="30"/>
+      <c r="G246" s="32"/>
     </row>
     <row r="247" customHeight="1" spans="7:7">
-      <c r="G247" s="30"/>
+      <c r="G247" s="32"/>
     </row>
     <row r="248" customHeight="1" spans="7:7">
-      <c r="G248" s="30"/>
+      <c r="G248" s="32"/>
     </row>
     <row r="249" customHeight="1" spans="7:7">
-      <c r="G249" s="30"/>
+      <c r="G249" s="32"/>
     </row>
     <row r="250" customHeight="1" spans="7:7">
-      <c r="G250" s="30"/>
+      <c r="G250" s="32"/>
     </row>
     <row r="251" customHeight="1" spans="7:7">
-      <c r="G251" s="30"/>
+      <c r="G251" s="32"/>
     </row>
     <row r="252" customHeight="1" spans="7:7">
-      <c r="G252" s="30"/>
+      <c r="G252" s="32"/>
     </row>
     <row r="253" customHeight="1" spans="7:7">
-      <c r="G253" s="30"/>
+      <c r="G253" s="32"/>
     </row>
     <row r="254" customHeight="1" spans="7:7">
-      <c r="G254" s="30"/>
+      <c r="G254" s="32"/>
     </row>
     <row r="255" customHeight="1" spans="7:7">
-      <c r="G255" s="30"/>
+      <c r="G255" s="32"/>
     </row>
     <row r="256" customHeight="1" spans="7:7">
-      <c r="G256" s="30"/>
+      <c r="G256" s="32"/>
     </row>
     <row r="257" customHeight="1" spans="7:7">
-      <c r="G257" s="30"/>
+      <c r="G257" s="32"/>
     </row>
     <row r="258" customHeight="1" spans="7:7">
-      <c r="G258" s="30"/>
+      <c r="G258" s="32"/>
     </row>
     <row r="259" customHeight="1" spans="7:7">
-      <c r="G259" s="30"/>
+      <c r="G259" s="32"/>
     </row>
     <row r="260" customHeight="1" spans="7:7">
-      <c r="G260" s="30"/>
+      <c r="G260" s="32"/>
     </row>
     <row r="261" customHeight="1" spans="7:7">
-      <c r="G261" s="30"/>
+      <c r="G261" s="32"/>
     </row>
     <row r="262" customHeight="1" spans="7:7">
-      <c r="G262" s="30"/>
+      <c r="G262" s="32"/>
     </row>
     <row r="263" customHeight="1" spans="7:7">
-      <c r="G263" s="30"/>
+      <c r="G263" s="32"/>
     </row>
     <row r="264" customHeight="1" spans="7:7">
-      <c r="G264" s="30"/>
+      <c r="G264" s="32"/>
     </row>
     <row r="265" customHeight="1" spans="7:7">
-      <c r="G265" s="30"/>
+      <c r="G265" s="32"/>
     </row>
     <row r="266" customHeight="1" spans="7:7">
-      <c r="G266" s="30"/>
+      <c r="G266" s="32"/>
     </row>
     <row r="267" customHeight="1" spans="7:7">
-      <c r="G267" s="30"/>
+      <c r="G267" s="32"/>
     </row>
     <row r="268" customHeight="1" spans="7:7">
-      <c r="G268" s="30"/>
+      <c r="G268" s="32"/>
     </row>
     <row r="269" customHeight="1" spans="7:7">
-      <c r="G269" s="30"/>
+      <c r="G269" s="32"/>
     </row>
     <row r="270" customHeight="1" spans="7:7">
-      <c r="G270" s="30"/>
+      <c r="G270" s="32"/>
     </row>
     <row r="271" customHeight="1" spans="7:7">
-      <c r="G271" s="30"/>
+      <c r="G271" s="32"/>
     </row>
     <row r="272" customHeight="1" spans="7:7">
-      <c r="G272" s="30"/>
+      <c r="G272" s="32"/>
     </row>
     <row r="273" customHeight="1" spans="7:7">
-      <c r="G273" s="30"/>
+      <c r="G273" s="32"/>
     </row>
     <row r="274" customHeight="1" spans="7:7">
-      <c r="G274" s="30"/>
+      <c r="G274" s="32"/>
     </row>
     <row r="275" customHeight="1" spans="7:7">
-      <c r="G275" s="30"/>
+      <c r="G275" s="32"/>
     </row>
     <row r="276" customHeight="1" spans="7:7">
-      <c r="G276" s="30"/>
+      <c r="G276" s="32"/>
     </row>
     <row r="277" customHeight="1" spans="7:7">
-      <c r="G277" s="30"/>
+      <c r="G277" s="32"/>
     </row>
     <row r="278" customHeight="1" spans="7:7">
-      <c r="G278" s="30"/>
+      <c r="G278" s="32"/>
     </row>
     <row r="279" customHeight="1" spans="7:7">
-      <c r="G279" s="30"/>
+      <c r="G279" s="32"/>
     </row>
     <row r="280" customHeight="1" spans="7:7">
-      <c r="G280" s="30"/>
+      <c r="G280" s="32"/>
     </row>
     <row r="281" customHeight="1" spans="7:7">
-      <c r="G281" s="30"/>
+      <c r="G281" s="32"/>
     </row>
     <row r="282" customHeight="1" spans="7:7">
-      <c r="G282" s="30"/>
+      <c r="G282" s="32"/>
     </row>
     <row r="283" customHeight="1" spans="7:7">
-      <c r="G283" s="30"/>
+      <c r="G283" s="32"/>
     </row>
     <row r="284" customHeight="1" spans="7:7">
-      <c r="G284" s="30"/>
+      <c r="G284" s="32"/>
     </row>
     <row r="285" customHeight="1" spans="7:7">
-      <c r="G285" s="30"/>
+      <c r="G285" s="32"/>
     </row>
     <row r="286" customHeight="1" spans="7:7">
-      <c r="G286" s="30"/>
+      <c r="G286" s="32"/>
     </row>
     <row r="287" customHeight="1" spans="7:7">
-      <c r="G287" s="30"/>
+      <c r="G287" s="32"/>
     </row>
     <row r="288" customHeight="1" spans="7:7">
-      <c r="G288" s="30"/>
+      <c r="G288" s="32"/>
     </row>
     <row r="289" customHeight="1" spans="7:7">
-      <c r="G289" s="30"/>
+      <c r="G289" s="32"/>
     </row>
     <row r="290" customHeight="1" spans="7:7">
-      <c r="G290" s="30"/>
+      <c r="G290" s="32"/>
     </row>
     <row r="291" customHeight="1" spans="7:7">
-      <c r="G291" s="30"/>
+      <c r="G291" s="32"/>
     </row>
     <row r="292" customHeight="1" spans="7:7">
-      <c r="G292" s="30"/>
+      <c r="G292" s="32"/>
     </row>
     <row r="293" customHeight="1" spans="7:7">
-      <c r="G293" s="30"/>
+      <c r="G293" s="32"/>
     </row>
     <row r="294" customHeight="1" spans="7:7">
-      <c r="G294" s="30"/>
+      <c r="G294" s="32"/>
     </row>
     <row r="295" customHeight="1" spans="7:7">
-      <c r="G295" s="30"/>
+      <c r="G295" s="32"/>
     </row>
     <row r="296" customHeight="1" spans="7:7">
-      <c r="G296" s="30"/>
+      <c r="G296" s="32"/>
     </row>
     <row r="297" customHeight="1" spans="7:7">
-      <c r="G297" s="30"/>
+      <c r="G297" s="32"/>
     </row>
     <row r="298" customHeight="1" spans="7:7">
-      <c r="G298" s="30"/>
+      <c r="G298" s="32"/>
     </row>
     <row r="299" customHeight="1" spans="7:7">
-      <c r="G299" s="30"/>
+      <c r="G299" s="32"/>
     </row>
     <row r="300" customHeight="1" spans="7:7">
-      <c r="G300" s="30"/>
+      <c r="G300" s="32"/>
     </row>
     <row r="301" customHeight="1" spans="7:7">
-      <c r="G301" s="30"/>
+      <c r="G301" s="32"/>
     </row>
     <row r="302" customHeight="1" spans="7:7">
-      <c r="G302" s="30"/>
+      <c r="G302" s="32"/>
     </row>
     <row r="303" customHeight="1" spans="7:7">
-      <c r="G303" s="30"/>
+      <c r="G303" s="32"/>
     </row>
     <row r="304" customHeight="1" spans="7:7">
-      <c r="G304" s="30"/>
+      <c r="G304" s="32"/>
     </row>
     <row r="305" customHeight="1" spans="7:7">
-      <c r="G305" s="30"/>
+      <c r="G305" s="32"/>
     </row>
     <row r="306" customHeight="1" spans="7:7">
-      <c r="G306" s="30"/>
+      <c r="G306" s="32"/>
     </row>
     <row r="307" customHeight="1" spans="7:7">
-      <c r="G307" s="30"/>
+      <c r="G307" s="32"/>
     </row>
     <row r="308" customHeight="1" spans="7:7">
-      <c r="G308" s="30"/>
+      <c r="G308" s="32"/>
     </row>
     <row r="309" customHeight="1" spans="7:7">
-      <c r="G309" s="30"/>
+      <c r="G309" s="32"/>
     </row>
     <row r="310" customHeight="1" spans="7:7">
-      <c r="G310" s="30"/>
+      <c r="G310" s="32"/>
     </row>
     <row r="311" customHeight="1" spans="7:7">
-      <c r="G311" s="30"/>
+      <c r="G311" s="32"/>
     </row>
     <row r="312" customHeight="1" spans="7:7">
-      <c r="G312" s="30"/>
+      <c r="G312" s="32"/>
     </row>
     <row r="313" customHeight="1" spans="7:7">
-      <c r="G313" s="30"/>
+      <c r="G313" s="32"/>
     </row>
     <row r="314" customHeight="1" spans="7:7">
-      <c r="G314" s="30"/>
+      <c r="G314" s="32"/>
     </row>
     <row r="315" customHeight="1" spans="7:7">
-      <c r="G315" s="30"/>
+      <c r="G315" s="32"/>
     </row>
     <row r="316" customHeight="1" spans="7:7">
-      <c r="G316" s="30"/>
+      <c r="G316" s="32"/>
     </row>
     <row r="317" customHeight="1" spans="7:7">
-      <c r="G317" s="30"/>
+      <c r="G317" s="32"/>
     </row>
     <row r="318" customHeight="1" spans="7:7">
-      <c r="G318" s="30"/>
+      <c r="G318" s="32"/>
     </row>
     <row r="319" customHeight="1" spans="7:7">
-      <c r="G319" s="30"/>
+      <c r="G319" s="32"/>
     </row>
     <row r="320" customHeight="1" spans="7:7">
-      <c r="G320" s="30"/>
+      <c r="G320" s="32"/>
     </row>
     <row r="321" customHeight="1" spans="7:7">
-      <c r="G321" s="30"/>
+      <c r="G321" s="32"/>
     </row>
     <row r="322" customHeight="1" spans="7:7">
-      <c r="G322" s="30"/>
+      <c r="G322" s="32"/>
     </row>
     <row r="323" customHeight="1" spans="7:7">
-      <c r="G323" s="30"/>
+      <c r="G323" s="32"/>
     </row>
     <row r="324" customHeight="1" spans="7:7">
-      <c r="G324" s="30"/>
+      <c r="G324" s="32"/>
     </row>
     <row r="325" customHeight="1" spans="7:7">
-      <c r="G325" s="30"/>
+      <c r="G325" s="32"/>
     </row>
     <row r="326" customHeight="1" spans="7:7">
-      <c r="G326" s="30"/>
+      <c r="G326" s="32"/>
     </row>
     <row r="327" customHeight="1" spans="7:7">
-      <c r="G327" s="30"/>
+      <c r="G327" s="32"/>
     </row>
     <row r="328" customHeight="1" spans="7:7">
-      <c r="G328" s="30"/>
+      <c r="G328" s="32"/>
     </row>
     <row r="329" customHeight="1" spans="7:7">
-      <c r="G329" s="30"/>
+      <c r="G329" s="32"/>
     </row>
     <row r="330" customHeight="1" spans="7:7">
-      <c r="G330" s="30"/>
+      <c r="G330" s="32"/>
     </row>
     <row r="331" customHeight="1" spans="7:7">
-      <c r="G331" s="30"/>
+      <c r="G331" s="32"/>
     </row>
     <row r="332" customHeight="1" spans="7:7">
-      <c r="G332" s="30"/>
+      <c r="G332" s="32"/>
     </row>
     <row r="333" customHeight="1" spans="7:7">
-      <c r="G333" s="30"/>
+      <c r="G333" s="32"/>
     </row>
     <row r="334" customHeight="1" spans="7:7">
-      <c r="G334" s="30"/>
+      <c r="G334" s="32"/>
     </row>
     <row r="335" customHeight="1" spans="7:7">
-      <c r="G335" s="30"/>
+      <c r="G335" s="32"/>
     </row>
     <row r="336" customHeight="1" spans="7:7">
-      <c r="G336" s="30"/>
-    </row>
-    <row r="337" customHeight="1" spans="7:7">
-      <c r="G337" s="30"/>
-    </row>
-    <row r="338" customHeight="1" spans="7:7">
-      <c r="G338" s="30"/>
-    </row>
-    <row r="339" customHeight="1" spans="7:7">
-      <c r="G339" s="30"/>
+      <c r="G336" s="32"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I197" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="2">
-    <mergeCell ref="A2:A169"/>
-    <mergeCell ref="A170:A198"/>
+    <mergeCell ref="A2:A166"/>
+    <mergeCell ref="A167:A197"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C339">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C336">
       <formula1>"标准件,机加工,塑胶件,套餐件,电子料"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G183" r:id="rId1" display="https://detail.tmall.com/item.htm?abbucket=3&amp;id=629988356617&amp;ns=1&amp;priceTId=2150433617262858933655312e164d&amp;skuId=5246239779008&amp;spm=a21n57.1.item.3.6d7e523cARXxqd&amp;utparam=%7B%22aplus_abtest%22%3A%22feced0aa20528205c0c4a3478b25d4d5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="G180" r:id="rId2" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=739921293061&amp;ns=1&amp;priceTId=2147811317262959661057610eae4c&amp;skuId=5405745891240&amp;spm=a21n57.1.item.2.3997523cCIZX2B&amp;utparam=%7B%22aplus_abtest%22%3A%220825f5cdcd85fcb3ceb9edbfa365a5e5%22%7D"/>
-    <hyperlink ref="G172" r:id="rId3" display="https://detail.tmall.com/item.htm?_u=s2j0s9a85ca&amp;id=676620093571&amp;skuId=4863774709619&amp;spm=a1z09.2.0.0.53bf2e8dxJ8G0d"/>
-    <hyperlink ref="G179" r:id="rId4" display="https://detail.tmall.com/item.htm?_u=k2hql9gc7868&amp;id=768485635361&amp;skuId=5274465073519&amp;spm=a1z09.2.0.0.2b4c2e8dhLGiCT"/>
-    <hyperlink ref="G171" r:id="rId5" display="https://detail.tmall.com/item.htm?abbucket=3&amp;id=654539105398&amp;ns=1&amp;pisk=fpEIKu9yDBAIrd_FlLBZ5i4XMdnSN7s2OLM8n8KeeDnKwPw0NXWl-DzsN5Fs9HWh-4h7tD3u8blEN0wuGO5V0iy3K00RgsSqrsRB6mvpvHdrWFHx-1Ww_iy3KbvBwtzO0UgQnExJybF-XRHEF0pK22BsWxk-2H3JvFdtsfh-2XKpBRHmFvpKJbB6WxkvJHLKJRKtevO-20F-6Xt2hY_IeJ6twGJe0K93QftJcKDtJayJznxD5v0KMuMw2Arsd2GYpkc7lcHTblgq7L5SX-4a9AifAIDQW-iKFuXvPbg7xcM7S6TUGWD8BVNFUUD_P8EmxW1B-XUU1qDtWLsmQSlTKkU1ECeLgXiKBVSAhR387k00Y1KIDr2EYzFA_elLlYIy5nlfMrTWCqxSCjW1CUYlkNCUnQPsn3uKIvgNCOO6rIxJqO61CE8xJADIMO66TF1..&amp;priceTId=213e384817260514470486805e85ef&amp;skuId=4721067748742&amp;spm=a21n57.1.item.2.1fd7523cyHBx4k&amp;utparam=%7B%22aplus_abtest%22%3A%22309b40eea6a0a8b83030ea72bd2e8474%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="G181" r:id="rId6" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=841799741063&amp;ns=1&amp;pisk=gW_xLJiMd82mQFhr7AZkjVaRs0PlWNC4nt5ISdvmfTBR1L0ggEqwWOpRQKxDlK09W1BNIOCagC91COpGmu4hgs8w5JvT-yfq_ZInvt3XG3N61CD_KxUkuSTw5J2tqVt4JFWFHQnDC0OWUCpsGI6sVUOBFCiX5O9WVBOnhFT1C7dW6BMjGCtsNUODFAg6cqa7PBOBGdO6h7CWUCGp4qptGpuObINF3fETy2uFyIKvBVv-WN_o-3pC8Lg_dORxLp1XeVg63m6Rp_C0H25kuZXptt4Sk9C1TGtRWYwpQaC5lG1rHROPftYWneZjwEbVGMt1RRo6kG6VWnSx_W5WlTSeLnZzUQQc-hpe2YwfZ_pXvGB0UV9cv_6JxaDo-esFeNKBRg7f-whmSvvpsmN8wcowcQPTJKf41OGSrQp3aToZb3dywpV8wcowcQRJK7-rbc-Ja&amp;priceTId=2147818b17285491211812558ec7cd&amp;skuId=5610968368229&amp;spm=a21n57.1.item.3.78be523c2v8iWX&amp;utparam=%7B%22aplus_abtest%22%3A%229f5fe8454d81368fe8f386cf8a9ad2ff%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="G184" r:id="rId7" display="https://detail.tmall.com/item.htm?_u=eusdja17689&amp;id=725399939920"/>
-    <hyperlink ref="G176" r:id="rId8" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=780433594580&amp;ns=1&amp;priceTId=213e38fb17262164502668215e21d0&amp;skuId=5502087051940&amp;spm=a21n57.1.item.2.2c7a523cp22xfj&amp;utparam=%7B%22aplus_abtest%22%3A%2258e00cdcd3f4b9d02ee6ee14cf8dd2ba%22%7D"/>
-    <hyperlink ref="G178" r:id="rId9" display="https://detail.tmall.com/item.htm?_u=k2hql9gcbb21&amp;id=689386252538&amp;skuId=4911648041559&amp;spm=a1z09.2.0.0.27092e8d0TEZMr"/>
-    <hyperlink ref="G9" r:id="rId10" display="https://detail.tmall.com/item.htm?abbucket=3&amp;id=615590795034&amp;ns=1&amp;pisk=g8rSLkabtQA5w_YzWMBq5an97NnQVWswNpMLIJKyp0n-9rwgObWhr0zjOSFjw3Wlr2hQZ033zXlrODw31t5NbGyuED0O_1SNmL_1OcvJyvdEH-Htvg1VuIyuEDcp3BQak8YBFuJJvvhdhmHIdBnKeH3AhvkH2Dh-JILxBjhKvW3pDIHiBBKpv4dAhAMByUL-vIIxQvKJvWndh-hy4iMVPbe5nMMdrs-n88hXvHERx4Gshe-BA0H-Pke-G-y4cYgS6qRoTwZ8gJEzqqbDuD245WaL6s8rwPM_GVz513N_ZvFj4lBhrq0LAkM0o6TI1yezSy3fegejVbN_mSppP0aLZkguPpXgH0F0Sf0RosDb4luIsqOAw-yjwVaQasxKaPwYGVr2ghoTSSZIWcIyHhl1piYBhVxIhfWfheYnF0ztYJ4BFm3-nxRNhtOW-4HmhfWfheYnyxDVQt6XNef..&amp;priceTId=2147bfc217276790251362915e1d7a&amp;skuId=4335724985479&amp;spm=a21n57.1.item.4.2d85523caW74Vt&amp;utparam=%7B%22aplus_abtest%22%3A%2259e82a5888cd0fbbc44598f96ed63d1f%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="G174" r:id="rId11" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=670668048692&amp;ns=1&amp;priceTId=213e38fb17262170855021380e21d0&amp;skuId=5005211227515&amp;spm=a21n57.1.item.2.1688523cZDpJiD&amp;utparam=%7B%22aplus_abtest%22%3A%220253cf65b3db2d2b872a9bd5de33347b%22%7D"/>
-    <hyperlink ref="G170" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=2&amp;id=724411676828&amp;ns=1&amp;priceTId=215044c117214714701803490e04b9&amp;sku_properties=5919063%3A33289462848&amp;spm=a21n57.1.item.2.446a523cIAsJH0&amp;utparam=%7B%22aplus_abtest%22%3A%2255e37b0c5bf07bb1e1cba47e4e076297%22%7D"/>
-    <hyperlink ref="G177" r:id="rId13" display="https://item.taobao.com/item.htm?id=781723849195&amp;skuId=5477569216211&amp;spm=a21m98.27004841"/>
-    <hyperlink ref="G175" r:id="rId14" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=765671802614&amp;ns=1&amp;priceTId=213e38fb17262173513164043e21d0&amp;skuId=5437026915982&amp;spm=a21n57.1.item.83.1688523cZDpJiD&amp;utparam=%7B%22aplus_abtest%22%3A%22fd25ff2ae6cb60e3726207de07ff81be%22%7D"/>
-    <hyperlink ref="G185" r:id="rId1" display="https://detail.tmall.com/item.htm?abbucket=3&amp;id=629988356617&amp;ns=1&amp;priceTId=2150433617262858933655312e164d&amp;skuId=5246239779008&amp;spm=a21n57.1.item.3.6d7e523cARXxqd&amp;utparam=%7B%22aplus_abtest%22%3A%22feced0aa20528205c0c4a3478b25d4d5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="G21" r:id="rId15" display="https://item.taobao.com/item.htm?_u=e3eb8r5q0dd3&amp;id=728605656005&amp;spm=a1z09.2.0.0.19e32e8deFG4v7"/>
-    <hyperlink ref="G182" r:id="rId16" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=745687748859&amp;ns=1&amp;priceTId=2150460f17267185435837949eac0c&amp;spm=a21n57.1.item.2.c865523c0US4Kd&amp;utparam=%7B%22aplus_abtest%22%3A%22321844d260be06a64b1070e3935f0ea9%22%7D"/>
-    <hyperlink ref="G173" r:id="rId17" display="https://item.taobao.com/item.htm?_u=cusdja1063a&amp;id=586152643331&amp;skuId=4141196886501"/>
+    <hyperlink ref="G180" r:id="rId1" display="https://detail.tmall.com/item.htm?abbucket=3&amp;id=629988356617&amp;ns=1&amp;priceTId=2150433617262858933655312e164d&amp;skuId=5246239779008&amp;spm=a21n57.1.item.3.6d7e523cARXxqd&amp;utparam=%7B%22aplus_abtest%22%3A%22feced0aa20528205c0c4a3478b25d4d5%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="G177" r:id="rId2" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=739921293061&amp;ns=1&amp;priceTId=2147811317262959661057610eae4c&amp;skuId=5405745891240&amp;spm=a21n57.1.item.2.3997523cCIZX2B&amp;utparam=%7B%22aplus_abtest%22%3A%220825f5cdcd85fcb3ceb9edbfa365a5e5%22%7D"/>
+    <hyperlink ref="G169" r:id="rId3" display="https://detail.tmall.com/item.htm?_u=s2j0s9a85ca&amp;id=676620093571&amp;skuId=4863774709619&amp;spm=a1z09.2.0.0.53bf2e8dxJ8G0d"/>
+    <hyperlink ref="G176" r:id="rId4" display="https://detail.tmall.com/item.htm?_u=k2hql9gc7868&amp;id=768485635361&amp;skuId=5274465073519&amp;spm=a1z09.2.0.0.2b4c2e8dhLGiCT"/>
+    <hyperlink ref="G168" r:id="rId5" display="https://detail.tmall.com/item.htm?abbucket=3&amp;id=654539105398&amp;ns=1&amp;pisk=fpEIKu9yDBAIrd_FlLBZ5i4XMdnSN7s2OLM8n8KeeDnKwPw0NXWl-DzsN5Fs9HWh-4h7tD3u8blEN0wuGO5V0iy3K00RgsSqrsRB6mvpvHdrWFHx-1Ww_iy3KbvBwtzO0UgQnExJybF-XRHEF0pK22BsWxk-2H3JvFdtsfh-2XKpBRHmFvpKJbB6WxkvJHLKJRKtevO-20F-6Xt2hY_IeJ6twGJe0K93QftJcKDtJayJznxD5v0KMuMw2Arsd2GYpkc7lcHTblgq7L5SX-4a9AifAIDQW-iKFuXvPbg7xcM7S6TUGWD8BVNFUUD_P8EmxW1B-XUU1qDtWLsmQSlTKkU1ECeLgXiKBVSAhR387k00Y1KIDr2EYzFA_elLlYIy5nlfMrTWCqxSCjW1CUYlkNCUnQPsn3uKIvgNCOO6rIxJqO61CE8xJADIMO66TF1..&amp;priceTId=213e384817260514470486805e85ef&amp;skuId=4721067748742&amp;spm=a21n57.1.item.2.1fd7523cyHBx4k&amp;utparam=%7B%22aplus_abtest%22%3A%22309b40eea6a0a8b83030ea72bd2e8474%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="G178" r:id="rId6" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=841799741063&amp;ns=1&amp;pisk=gW_xLJiMd82mQFhr7AZkjVaRs0PlWNC4nt5ISdvmfTBR1L0ggEqwWOpRQKxDlK09W1BNIOCagC91COpGmu4hgs8w5JvT-yfq_ZInvt3XG3N61CD_KxUkuSTw5J2tqVt4JFWFHQnDC0OWUCpsGI6sVUOBFCiX5O9WVBOnhFT1C7dW6BMjGCtsNUODFAg6cqa7PBOBGdO6h7CWUCGp4qptGpuObINF3fETy2uFyIKvBVv-WN_o-3pC8Lg_dORxLp1XeVg63m6Rp_C0H25kuZXptt4Sk9C1TGtRWYwpQaC5lG1rHROPftYWneZjwEbVGMt1RRo6kG6VWnSx_W5WlTSeLnZzUQQc-hpe2YwfZ_pXvGB0UV9cv_6JxaDo-esFeNKBRg7f-whmSvvpsmN8wcowcQPTJKf41OGSrQp3aToZb3dywpV8wcowcQRJK7-rbc-Ja&amp;priceTId=2147818b17285491211812558ec7cd&amp;skuId=5610968368229&amp;spm=a21n57.1.item.3.78be523c2v8iWX&amp;utparam=%7B%22aplus_abtest%22%3A%229f5fe8454d81368fe8f386cf8a9ad2ff%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="G181" r:id="rId7" display="https://detail.tmall.com/item.htm?_u=eusdja17689&amp;id=725399939920"/>
+    <hyperlink ref="G173" r:id="rId8" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=780433594580&amp;ns=1&amp;priceTId=213e38fb17262164502668215e21d0&amp;skuId=5502087051940&amp;spm=a21n57.1.item.2.2c7a523cp22xfj&amp;utparam=%7B%22aplus_abtest%22%3A%2258e00cdcd3f4b9d02ee6ee14cf8dd2ba%22%7D"/>
+    <hyperlink ref="G175" r:id="rId9" display="https://detail.tmall.com/item.htm?_u=k2hql9gcbb21&amp;id=689386252538&amp;skuId=4911648041559&amp;spm=a1z09.2.0.0.27092e8d0TEZMr"/>
+    <hyperlink ref="G8" r:id="rId10" display="https://detail.tmall.com/item.htm?abbucket=3&amp;id=615590795034&amp;ns=1&amp;pisk=g8rSLkabtQA5w_YzWMBq5an97NnQVWswNpMLIJKyp0n-9rwgObWhr0zjOSFjw3Wlr2hQZ033zXlrODw31t5NbGyuED0O_1SNmL_1OcvJyvdEH-Htvg1VuIyuEDcp3BQak8YBFuJJvvhdhmHIdBnKeH3AhvkH2Dh-JILxBjhKvW3pDIHiBBKpv4dAhAMByUL-vIIxQvKJvWndh-hy4iMVPbe5nMMdrs-n88hXvHERx4Gshe-BA0H-Pke-G-y4cYgS6qRoTwZ8gJEzqqbDuD245WaL6s8rwPM_GVz513N_ZvFj4lBhrq0LAkM0o6TI1yezSy3fegejVbN_mSppP0aLZkguPpXgH0F0Sf0RosDb4luIsqOAw-yjwVaQasxKaPwYGVr2ghoTSSZIWcIyHhl1piYBhVxIhfWfheYnF0ztYJ4BFm3-nxRNhtOW-4HmhfWfheYnyxDVQt6XNef..&amp;priceTId=2147bfc217276790251362915e1d7a&amp;skuId=4335724985479&amp;spm=a21n57.1.item.4.2d85523caW74Vt&amp;utparam=%7B%22aplus_abtest%22%3A%2259e82a5888cd0fbbc44598f96ed63d1f%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="G171" r:id="rId11" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=670668048692&amp;ns=1&amp;priceTId=213e38fb17262170855021380e21d0&amp;skuId=5005211227515&amp;spm=a21n57.1.item.2.1688523cZDpJiD&amp;utparam=%7B%22aplus_abtest%22%3A%220253cf65b3db2d2b872a9bd5de33347b%22%7D"/>
+    <hyperlink ref="G167" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=2&amp;id=724411676828&amp;ns=1&amp;priceTId=215044c117214714701803490e04b9&amp;sku_properties=5919063%3A33289462848&amp;spm=a21n57.1.item.2.446a523cIAsJH0&amp;utparam=%7B%22aplus_abtest%22%3A%2255e37b0c5bf07bb1e1cba47e4e076297%22%7D"/>
+    <hyperlink ref="G174" r:id="rId13" display="https://item.taobao.com/item.htm?id=781723849195&amp;skuId=5477569216211&amp;spm=a21m98.27004841"/>
+    <hyperlink ref="G172" r:id="rId14" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=765671802614&amp;ns=1&amp;priceTId=213e38fb17262173513164043e21d0&amp;skuId=5437026915982&amp;spm=a21n57.1.item.83.1688523cZDpJiD&amp;utparam=%7B%22aplus_abtest%22%3A%22fd25ff2ae6cb60e3726207de07ff81be%22%7D"/>
+    <hyperlink ref="G182" r:id="rId1" display="https://detail.tmall.com/item.htm?abbucket=3&amp;id=629988356617&amp;ns=1&amp;priceTId=2150433617262858933655312e164d&amp;skuId=5246239779008&amp;spm=a21n57.1.item.3.6d7e523cARXxqd&amp;utparam=%7B%22aplus_abtest%22%3A%22feced0aa20528205c0c4a3478b25d4d5%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="G19" r:id="rId15" display="https://item.taobao.com/item.htm?_u=e3eb8r5q0dd3&amp;id=728605656005&amp;spm=a1z09.2.0.0.19e32e8deFG4v7"/>
+    <hyperlink ref="G179" r:id="rId16" display="https://item.taobao.com/item.htm?abbucket=3&amp;id=745687748859&amp;ns=1&amp;priceTId=2150460f17267185435837949eac0c&amp;spm=a21n57.1.item.2.c865523c0US4Kd&amp;utparam=%7B%22aplus_abtest%22%3A%22321844d260be06a64b1070e3935f0ea9%22%7D"/>
+    <hyperlink ref="G170" r:id="rId17" display="https://item.taobao.com/item.htm?_u=cusdja1063a&amp;id=586152643331&amp;skuId=4141196886501"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
